--- a/public/preprocessing/@salimafillah.xlsx
+++ b/public/preprocessing/@salimafillah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14250</v>
+        <v>33162</v>
       </c>
       <c r="C2" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto makam raja raja mataramimogiri</t>
+          <t>baru saja mengirim foto omah dakwah prou media jl jogokariyan yogyakarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jl', 'jogokariyan', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jalan', 'jogokariyan', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
+          <t>['mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jalan', 'jogokariyan', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jalan', 'jogokariyan', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14251</v>
+        <v>33163</v>
       </c>
       <c r="C3" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt id bekal utama kebersamaan hidup adalah kesabaran sebab kita tahu perjalanan berombongan umumnya lebih lambat dibanding </t>
+          <t>rt membaikkan dan meninggalkan kebaikan seorang mukmin memang menjadikan dunia hanya sebagai persinggahan tapi dia tamu yang</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'bekal', 'utama', 'kebersamaan', 'hidup', 'adalah', 'kesabaran', 'sebab', 'kita', 'tahu', 'perjalanan', 'berombongan', 'umumnya', 'lebih', 'lambat', 'dibanding']</t>
+          <t>['rt', 'membaikkan', 'dan', 'meninggalkan', 'kebaikan', 'seorang', 'mukmin', 'memang', 'menjadikan', 'dunia', 'hanya', 'sebagai', 'persinggahan', 'tapi', 'dia', 'tamu', 'yang']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'membaikkan', 'dan', 'meninggalkan', 'kebaikan', 'seorang', 'mukmin', 'memang', 'menjadikan', 'dunia', 'hanya', 'sebagai', 'persinggahan', 'tapi', 'dia', 'tamu', 'yang']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['id', 'bekal', 'utama', 'kebersamaan', 'hidup', 'kesabaran', 'perjalanan', 'berombongan', 'lambat', 'dibanding']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['id', 'bekal', 'utama', 'sama', 'hidup', 'sabar', 'jalan', 'rombong', 'lambat', 'banding']</t>
+          <t>['membaikkan', 'meninggalkan', 'kebaikan', 'mukmin', 'menjadikan', 'dunia', 'persinggahan', 'tamu']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['baik', 'tinggal', 'baik', 'mukmin', 'jadi', 'dunia', 'singgah', 'tamu']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14252</v>
+        <v>33164</v>
       </c>
       <c r="C4" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt ready stock baru datang dari penerbit gt saya menjual original sang pangeran dan janissary terakhir novel salim  fillah</t>
+          <t>rt afra saya menjual original sang pangeran dan janissary terakhir novel salim  fillah dengan potongan mantap hanya rp</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'ready', 'stock', 'baru', 'datang', 'dari', 'penerbit', 'gt', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah']</t>
+          <t>['rt', 'afra', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah', 'dengan', 'potongan', 'mantap', 'hanya', 'rp']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'afra', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah', 'dengan', 'potongan', 'mantap', 'hanya', 'rupiah']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['ready', 'stock', 'penerbit', 'gt', 'menjual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['ready', 'stock', 'terbit', 'gt', 'jual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah']</t>
+          <t>['afra', 'menjual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah', 'potongan', 'mantap', 'rupiah']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['afra', 'jual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah', 'potong', 'mantap', 'rupiah']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14253</v>
+        <v>33165</v>
       </c>
       <c r="C5" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt kerumunan jokowi dianggap spontanitas kerumunan hrs di bogor diganjar tersangka</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'hrs', 'di', 'bogor', 'diganjar', 'tersangka']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'hrs', 'bogor', 'diganjar', 'tersangka']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kerumun', 'jokowi', 'anggap', 'spontanitas', 'kerumun', 'hrs', 'bogor', 'ganjar', 'sangka']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14254</v>
+        <v>33166</v>
       </c>
       <c r="C6" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt apakah ini pesan tersirat utk karya ust berikutnya sunan kalijogo sultan agung dan hamengkubuwono  https</t>
+          <t>baru saja mengirim foto legen mangir</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'apakah', 'ini', 'pesan', 'tersirat', 'utk', 'karya', 'ust', 'berikutnya', 'sunan', 'kalijogo', 'sultan', 'agung', 'dan', 'hamengkubuwono', 'https']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pesan', 'tersirat', 'karya', 'ust', 'sunan', 'kalijogo', 'sultan', 'agung', 'hamengkubuwono', 'https']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['pesan', 'sirat', 'karya', 'ust', 'sunan', 'kalijogo', 'sultan', 'agung', 'hamengkubuwono', 'https']</t>
+          <t>['mengirim', 'foto', 'legen', 'mangir']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14255</v>
+        <v>33167</v>
       </c>
       <c r="C7" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt buku fiksi sejarah perang diponegoro karya ust yg sangat menarik utk dibaca ust sudah berhasil membuat cerit</t>
+          <t>rt wacana yang meresahkan kata fahmi cukup dengan bikin wacana langsung drop harga beras petani yg lagi panen raya kok</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ust', 'yg', 'sangat', 'menarik', 'utk', 'dibaca', 'ust', 'sudah', 'berhasil', 'membuat', 'cerit']</t>
+          <t>['rt', 'wacana', 'yang', 'meresahkan', 'kata', 'fahmi', 'cukup', 'dengan', 'bikin', 'wacana', 'langsung', 'drop', 'harga', 'beras', 'petani', 'yg', 'lagi', 'panen', 'raya', 'kok']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'wacana', 'yang', 'meresahkan', 'kata', 'fahmi', 'cukup', 'dengan', 'bikin', 'wacana', 'langsung', 'drop', 'harga', 'beras', 'petani', 'yang', 'lagi', 'panen', 'raya', 'kok']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ust', 'menarik', 'dibaca', 'ust', 'berhasil', 'cerit']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ust', 'tarik', 'baca', 'ust', 'hasil', 'cit']</t>
+          <t>['wacana', 'meresahkan', 'fahmi', 'wacana', 'langsung', 'drop', 'harga', 'beras', 'petani', 'panen', 'raya']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['wacana', 'resah', 'fahmi', 'wacana', 'langsung', 'drop', 'harga', 'beras', 'tani', 'panen', 'raya']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14256</v>
+        <v>33168</v>
       </c>
       <c r="C8" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt astar berdoa itu lebih penting dr pada hasilnya krn hasil itu hanya fana benda status dan kehidupan dunia yg tdk abadi </t>
+          <t>baru saja mengirim foto doha state of qatar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'astar', 'berdoa', 'itu', 'lebih', 'penting', 'dr', 'pada', 'hasilnya', 'krn', 'hasil', 'itu', 'hanya', 'fana', 'benda', 'status', 'dan', 'kehidupan', 'dunia', 'yg', 'tdk', 'abadi']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'doha', 'state', 'of', 'qatar']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'doha', 'state', 'of', 'qatar']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['astar', 'berdoa', 'dr', 'hasilnya', 'hasil', 'fana', 'benda', 'status', 'kehidupan', 'dunia', 'abadi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['astar', 'doa', 'dr', 'hasil', 'hasil', 'fana', 'benda', 'status', 'hidup', 'dunia', 'abadi']</t>
+          <t>['mengirim', 'foto', 'doha', 'state', 'of', 'qatar']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'doha', 'state', 'of', 'qatar']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14257</v>
+        <v>33169</v>
       </c>
       <c r="C9" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t>rt akhirat tujuan kita seindah apapun dunia biarlah ia jadi latar dibelakang kita didepan sana akhirat tujuan kita salim</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'akhirat', 'tujuan', 'kita', 'seindah', 'apapun', 'dunia', 'biarlah', 'ia', 'jadi', 'latar', 'dibelakang', 'kita', 'didepan', 'sana', 'akhirat', 'tujuan', 'kita', 'salim']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'akhirat', 'tujuan', 'kita', 'seindah', 'apapun', 'dunia', 'biarlah', 'ia', 'jadi', 'latar', 'di, belakang', 'kita', 'di, depan', 'sana', 'akhirat', 'tujuan', 'kita', 'salim']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['akhirat', 'tujuan', 'seindah', 'apapun', 'dunia', 'biarlah', 'latar', 'di, belakang', 'di, depan', 'akhirat', 'tujuan', 'salim']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['akhirat', 'tuju', 'indah', 'apa', 'dunia', 'biar', 'latar', 'di belakang', 'di depan', 'akhirat', 'tuju', 'salim']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14258</v>
+        <v>33170</v>
       </c>
       <c r="C10" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt bonus dikit sih buat diri sndiri lebih tepatnya mmm jangan brhenti buat evaluasi diri katanya dari ust salim  fillah ht</t>
+          <t>rt kerjakerja pks adalah kerjakerja pelayanan jangan sampai kalah dengan mahluk lainnya yang memberikan manfaat untuk sem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'bonus', 'dikit', 'sih', 'buat', 'diri', 'sndiri', 'lebih', 'tepatnya', 'mmm', 'jangan', 'brhenti', 'buat', 'evaluasi', 'diri', 'katanya', 'dari', 'ust', 'salim', 'fillah', 'ht']</t>
+          <t>['rt', 'kerjakerja', 'pks', 'adalah', 'kerjakerja', 'pelayanan', 'jangan', 'sampai', 'kalah', 'dengan', 'mahluk', 'lainnya', 'yang', 'memberikan', 'manfaat', 'untuk', 'sem']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'kerjakerja', 'partai, keadilan, sejahtera', 'adalah', 'kerjakerja', 'pelayanan', 'jangan', 'sampai', 'kalah', 'dengan', 'makhluk', 'lainnya', 'yang', 'memberikan', 'manfaat', 'untuk', 'sem']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['bonus', 'dikit', 'sndiri', 'tepatnya', 'mmm', 'brhenti', 'evaluasi', 'ust', 'salim', 'fillah', 'ht']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['bonus', 'dikit', 'sndiri', 'tepat', 'mmm', 'brhenti', 'evaluasi', 'ust', 'salim', 'fillah', 'ht']</t>
+          <t>['kerjakerja', 'partai, keadilan, sejahtera', 'kerjakerja', 'pelayanan', 'kalah', 'makhluk', 'manfaat', 'sem']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['kerjakerja', 'partai adil sejahtera', 'kerjakerja', 'layan', 'kalah', 'makhluk', 'manfaat', 'sem']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14259</v>
+        <v>33171</v>
       </c>
       <c r="C11" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt tak ada yang terlalu buruk untuk memulai hal yang baik tak ada yang terlalu baik untuk berhenti dari kebaikan ustadz sa</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'tak', 'ada', 'yang', 'terlalu', 'buruk', 'untuk', 'memulai', 'hal', 'yang', 'baik', 'tak', 'ada', 'yang', 'terlalu', 'baik', 'untuk', 'berhenti', 'dari', 'kebaikan', 'ustadz', 'sa']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 22 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['buruk', 'berhenti', 'kebaikan', 'ustadz', 'sa']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['buruk', 'henti', 'baik', 'ustadz', 'sa']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14260</v>
+        <v>33172</v>
       </c>
       <c r="C12" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t>rt menjadi insan kuat siapa yang ingin menjadi insan kuat hendaklah dia bersandar kepada allah karena sesungguhnya kekuatan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'menjadi', 'insan', 'kuat', 'siapa', 'yang', 'ingin', 'menjadi', 'insan', 'kuat', 'hendaklah', 'dia', 'bersandar', 'kepada', 'allah', 'karena', 'sesungguhnya', 'kekuatan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'menjadi', 'insan', 'kuat', 'siapa', 'yang', 'ingin', 'menjadi', 'insan', 'kuat', 'hendaklah', 'dia', 'bersandar', 'kepada', 'allah', 'karena', 'sesungguhnya', 'kekuatan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['insan', 'kuat', 'insan', 'kuat', 'bersandar', 'allah', 'sesungguhnya', 'kekuatan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['insan', 'kuat', 'insan', 'kuat', 'sandar', 'allah', 'sungguh', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14261</v>
+        <v>33173</v>
       </c>
       <c r="C13" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto kotagede yogyakarta indonesia</t>
+          <t>rt gudanggudang di criebon saja masih menyimpan ton garam hasil panen tahun lalu kini pemerintah memutuskan untuk meng</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
+          <t>['rt', 'gudanggudang', 'di', 'criebon', 'saja', 'masih', 'menyimpan', 'ton', 'garam', 'hasil', 'panen', 'tahun', 'lalu', 'kini', 'pemerintah', 'memutuskan', 'untuk', 'meng']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'gudanggudang', 'di', 'criebon', 'saja', 'masih', 'menyimpan', 'ton', 'garam', 'hasil', 'panen', 'tahun', 'lalu', 'kini', 'pemerintah', 'memutuskan', 'untuk', 'meng']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
+          <t>['gudanggudang', 'criebon', 'menyimpan', 'ton', 'garam', 'hasil', 'panen', 'pemerintah', 'memutuskan', 'meng']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['gudanggudang', 'criebon', 'simpan', 'ton', 'garam', 'hasil', 'panen', 'perintah', 'putus', 'meng']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14262</v>
+        <v>33174</v>
       </c>
       <c r="C14" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt viral aksi fpi beri bantuan dibubarkan perahu karetnya dipakai</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'viral', 'aksi', 'fpi', 'beri', 'bantuan', 'dibubarkan', 'perahu', 'karetnya', 'dipakai']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['viral', 'aksi', 'fpi', 'bantuan', 'dibubarkan', 'perahu', 'karetnya', 'dipakai']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['viral', 'aksi', 'fpi', 'bantu', 'bubar', 'perahu', 'karet', 'pakai']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14263</v>
+        <v>33175</v>
       </c>
       <c r="C15" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt memperbaiki membangkitkan memenangkan rohingya dengan alquran program untuk gizi pakaian</t>
+          <t>baru saja mengirim foto kota istimewa yogyakarta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'memperbaiki', 'membangkitkan', 'memenangkan', 'rohingya', 'dengan', 'alquran', 'program', 'untuk', 'gizi', 'pakaian']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'kota', 'istimewa', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'kota', 'istimewa', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['memperbaiki', 'membangkitkan', 'memenangkan', 'rohingya', 'alquran', 'program', 'gizi', 'pakaian']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['baik', 'bangkit', 'menang', 'rohingya', 'alquran', 'program', 'gizi', 'pakai']</t>
+          <t>['mengirim', 'foto', 'kota', 'istimewa', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'kota', 'istimewa', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14264</v>
+        <v>33176</v>
       </c>
       <c r="C16" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>baru saja mengirim video special region of yogyakarta</t>
+          <t>rt beruntunglah ia yang bertambah taqwa setiap hari tidaklah berganti hari kecuali kita bertambah dekat kepada mati beruntung</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'video', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'beruntunglah', 'ia', 'yang', 'bertambah', 'taqwa', 'setiap', 'hari', 'tidaklah', 'berganti', 'hari', 'kecuali', 'kita', 'bertambah', 'dekat', 'kepada', 'mati', 'beruntung']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'beruntunglah', 'ia', 'yang', 'bertambah', 'takwa', 'setiap', 'hari', 'tidaklah', 'berganti', 'hari', 'kecuali', 'kita', 'bertambah', 'dekat', 'kepada', 'mati', 'beruntung']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['mengirim', 'video', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['kirim', 'video', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['beruntunglah', 'bertambah', 'takwa', 'berganti', 'kecuali', 'bertambah', 'mati', 'beruntung']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['untung', 'tambah', 'takwa', 'ganti', 'kecuali', 'tambah', 'mati', 'untung']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14265</v>
+        <v>33177</v>
       </c>
       <c r="C17" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto dukuh tawangsari</t>
+          <t>rt tumbuhnya keikhlasan keikhlasan memang tak selalu tumbuh dari rasa ringan dalam melaksanakan perintah ikhlas bisa saja tum</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'dukuh', 'tawangsari']</t>
+          <t>['rt', 'tumbuhnya', 'keikhlasan', 'keikhlasan', 'memang', 'tak', 'selalu', 'tumbuh', 'dari', 'rasa', 'ringan', 'dalam', 'melaksanakan', 'perintah', 'ikhlas', 'bisa', 'saja', 'tum']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'tumbuhnya', 'keikhlasan', 'keikhlasan', 'memang', 'tak', 'selalu', 'tumbuh', 'dari', 'rasa', 'ringan', 'dalam', 'melaksanakan', 'perintah', 'ikhlas', 'bisa', 'saja', 'tum']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'dukuh', 'tawangsari']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'dukuh', 'tawangsari']</t>
+          <t>['tumbuhnya', 'keikhlasan', 'keikhlasan', 'tumbuh', 'ringan', 'melaksanakan', 'perintah', 'ikhlas', 'tum']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['tumbuh', 'ikhlas', 'ikhlas', 'tumbuh', 'ringan', 'laksana', 'perintah', 'ikhlas', 'tum']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14266</v>
+        <v>33178</v>
       </c>
       <c r="C18" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt obrolan pagi ayah anak ibu di halaman masjid yg diberkahi plot twist jangan mereka bertiga itu yg ada di logo </t>
+          <t>baru saja mengirim foto legen mangir</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'obrolan', 'pagi', 'ayah', 'anak', 'ibu', 'di', 'halaman', 'masjid', 'yg', 'diberkahi', 'plot', 'twist', 'jangan', 'mereka', 'bertiga', 'itu', 'yg', 'ada', 'di', 'logo']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['obrolan', 'pagi', 'ayah', 'anak', 'halaman', 'masjid', 'diberkahi', 'plot', 'twist', 'bertiga', 'logo']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['obrol', 'pagi', 'ayah', 'anak', 'halaman', 'masjid', 'kah', 'plot', 'twist', 'tiga', 'logo']</t>
+          <t>['mengirim', 'foto', 'legen', 'mangir']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14267</v>
+        <v>33179</v>
       </c>
       <c r="C19" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>baru saja mengirim video masjid al aqsa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'masjid', 'al', 'aqsa']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'masjid', 'al', 'aqsa']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mengirim', 'video', 'masjid', 'al', 'aqsa']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['kirim', 'video', 'masjid', 'al', 'aqsa']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14268</v>
+        <v>33180</v>
       </c>
       <c r="C20" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14269</v>
+        <v>33181</v>
       </c>
       <c r="C21" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt mendingan gue gak pake jilbab tapi bukan pelakor apa iya mendingan</t>
+          <t>rt kemarin serdadu penjajah zionis israel sekap khatib masjidil aqsha syaikh ikrimah sabri saat sedang menyiapkan pekan ba</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'mendingan', 'gue', 'gak', 'pake', 'jilbab', 'tapi', 'bukan', 'pelakor', 'apa', 'iya', 'mendingan']</t>
+          <t>['rt', 'kemarin', 'serdadu', 'penjajah', 'zionis', 'israel', 'sekap', 'khatib', 'masjidil', 'aqsha', 'syaikh', 'ikrimah', 'sabri', 'saat', 'sedang', 'menyiapkan', 'pekan', 'ba']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'kemarin', 'serdadu', 'penjajah', 'zionis', 'israel', 'sekap', 'khatib', 'masjidil', 'aqsha', 'syaikh', 'ikrimah', 'sabri', 'saat', 'sedang', 'menyiapkan', 'pekan', 'ba']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['mendingan', 'gue', 'pake', 'jilbab', 'pelakor', 'iya', 'mendingan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['mending', 'gue', 'pake', 'jilbab', 'pelakor', 'iya', 'mending']</t>
+          <t>['kemarin', 'serdadu', 'penjajah', 'zionis', 'israel', 'sekap', 'khatib', 'masjidil', 'aqsha', 'syaikh', 'ikrimah', 'sabri', 'pekan', 'ba']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kemarin', 'serdadu', 'jajah', 'zionis', 'israel', 'sekap', 'khatib', 'masjidil', 'aqsha', 'syaikh', 'ikrimah', 'sabri', 'pekan', 'ba']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14270</v>
+        <v>33182</v>
       </c>
       <c r="C22" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt anwar memberi maaf pada yang merasa punya khilaf menentramkan hatinya memberi maaf pada yang tak merasa bersalah menentramkan </t>
+          <t>rt jelang pekan baitul maqdis internasional serdadu zionis sekap syaikh ikrimah sabri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'anwar', 'memberi', 'maaf', 'pada', 'yang', 'merasa', 'punya', 'khilaf', 'menentramkan', 'hatinya', 'memberi', 'maaf', 'pada', 'yang', 'tak', 'merasa', 'bersalah', 'menentramkan']</t>
+          <t>['rt', 'jelang', 'pekan', 'baitul', 'maqdis', 'internasional', 'serdadu', 'zionis', 'sekap', 'syaikh', 'ikrimah', 'sabri']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jelang', 'pekan', 'baitul', 'maqdis', 'internasional', 'serdadu', 'zionis', 'sekap', 'syaikh', 'ikrimah', 'sabri']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['anwar', 'maaf', 'khilaf', 'menentramkan', 'hatinya', 'maaf', 'bersalah', 'menentramkan']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['anwar', 'maaf', 'khilaf', 'menentramkan', 'hati', 'maaf', 'salah', 'menentramkan']</t>
+          <t>['jelang', 'pekan', 'baitul', 'maqdis', 'internasional', 'serdadu', 'zionis', 'sekap', 'syaikh', 'ikrimah', 'sabri']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['jelang', 'pekan', 'baitul', 'maqdis', 'internasional', 'serdadu', 'zionis', 'sekap', 'syaikh', 'ikrimah', 'sabri']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14271</v>
+        <v>33183</v>
       </c>
       <c r="C23" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt ini cara kita menghangatkan keluarga membuatkan pakaian musim dingin gratis terusmenerus utk</t>
+          <t>rt tahun kekejaman assad terhadap rakyat suriah anak tewas dan terluka</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'cara', 'kita', 'menghangatkan', 'keluarga', 'membuatkan', 'pakaian', 'musim', 'dingin', 'gratis', 'terusmenerus', 'utk']</t>
+          <t>['rt', 'tahun', 'kekejaman', 'assad', 'terhadap', 'rakyat', 'suriah', 'anak', 'tewas', 'dan', 'terluka']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'tahun', 'kekejaman', 'assad', 'terhadap', 'rakyat', 'suriah', 'anak', 'tewas', 'dan', 'terluka']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['menghangatkan', 'keluarga', 'membuatkan', 'pakaian', 'musim', 'dingin', 'gratis', 'terusmenerus']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['hangat', 'keluarga', 'buat', 'pakai', 'musim', 'dingin', 'gratis', 'terusmenerus']</t>
+          <t>['kekejaman', 'assad', 'rakyat', 'suriah', 'anak', 'tewas', 'terluka']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kejam', 'assad', 'rakyat', 'suriah', 'anak', 'tewas', 'luka']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14272</v>
+        <v>33184</v>
       </c>
       <c r="C24" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto klner dom</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'klner', 'dom']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'klner', 'dom']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'klner', 'dom']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14273</v>
+        <v>33185</v>
       </c>
       <c r="C25" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt albinsaid untuk menempuh meter siput butuh waktu jam tapi mobil formula hanya detik kita mungkin punya citacita</t>
+          <t>rt menurut konstituai kita agama tidak sekedar kata atau frasa bunga dalam peta jalan pendidikan nasional kita tetapi pet</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'albinsaid', 'untuk', 'menempuh', 'meter', 'siput', 'butuh', 'waktu', 'jam', 'tapi', 'mobil', 'formula', 'hanya', 'detik', 'kita', 'mungkin', 'punya', 'citacita']</t>
+          <t>['rt', 'menurut', 'konstituai', 'kita', 'agama', 'tidak', 'sekedar', 'kata', 'atau', 'frasa', 'bunga', 'dalam', 'peta', 'jalan', 'pendidikan', 'nasional', 'kita', 'tetapi', 'pet']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'menurut', 'konstituai', 'kita', 'agama', 'tidak', 'sekadar', 'kata', 'atau', 'frasa', 'bunga', 'dalam', 'peta', 'jalan', 'pendidikan', 'nasional', 'kita', 'tetapi', 'pet']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['albinsaid', 'menempuh', 'meter', 'siput', 'butuh', 'jam', 'mobil', 'formula', 'detik', 'citacita']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['albinsaid', 'tempuh', 'meter', 'siput', 'butuh', 'jam', 'mobil', 'formula', 'detik', 'citacita']</t>
+          <t>['konstituai', 'agama', 'frasa', 'bunga', 'peta', 'jalan', 'pendidikan', 'nasional', 'pet']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['konstituai', 'agama', 'frasa', 'bunga', 'peta', 'jalan', 'didik', 'nasional', 'pet']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14274</v>
+        <v>33186</v>
       </c>
       <c r="C26" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt tweeps benar khan apa yg saya sampaikan ke berbagai media sebelumnya kalau memang presiden serius maka jala</t>
+          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'tweeps', 'benar', 'khan', 'apa', 'yg', 'saya', 'sampaikan', 'ke', 'berbagai', 'media', 'sebelumnya', 'kalau', 'memang', 'presiden', 'serius', 'maka', 'jala']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['tweeps', 'khan', 'media', 'presiden', 'serius', 'jala']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['tweeps', 'khan', 'media', 'presiden', 'serius', 'jala']</t>
+          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14275</v>
+        <v>33187</v>
       </c>
       <c r="C27" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt laporan keuangan gar itb untuk proyek prof din syamsuddin bocor ke publik</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'laporan', 'keuangan', 'gar', 'itb', 'untuk', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'ke', 'publik']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['laporan', 'keuangan', 'gar', 'itb', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'publik']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['lapor', 'uang', 'gar', 'itb', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'publik']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14276</v>
+        <v>33188</v>
       </c>
       <c r="C28" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto omah dakwah prou media jl jogokariyan yogyakarta</t>
+          <t>rt tim bersinergi dengan dan  mengadakan proses pipanisasi dari titik mata air ya</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jl', 'jogokariyan', 'yogyakarta']</t>
+          <t>['rt', 'tim', 'bersinergi', 'dengan', 'dan', 'mengadakan', 'proses', 'pipanisasi', 'dari', 'titik', 'mata', 'air', 'ya']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'tim', 'bersinergi', 'dengan', 'dan', 'mengadakan', 'proses', 'pipanisasi', 'dari', 'titik', 'mata', 'air', 'ya']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jl', 'jogokariyan', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jl', 'jogokariyan', 'yogyakarta']</t>
+          <t>['tim', 'bersinergi', 'mengadakan', 'proses', 'pipanisasi', 'titik', 'mata', 'air']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['tim', 'sinergi', 'ada', 'proses', 'pipanisasi', 'titik', 'mata', 'air']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14277</v>
+        <v>33189</v>
       </c>
       <c r="C29" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14278</v>
+        <v>33190</v>
       </c>
       <c r="C30" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt saya heran pejabat ini kok tidak punya rasa malu lagi sedikitpun jelas conflict of interest jamane jaman edan ra ed</t>
+          <t>rt interupsi di paripurna dpr anggota badan legislasi fraksi pks yusuf cabut draf peta jalan pendidikan https</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'heran', 'pejabat', 'ini', 'kok', 'tidak', 'punya', 'rasa', 'malu', 'lagi', 'sedikitpun', 'jelas', 'conflict', 'of', 'interest', 'jamane', 'jaman', 'edan', 'ra', 'ed']</t>
+          <t>['rt', 'interupsi', 'di', 'paripurna', 'dpr', 'anggota', 'badan', 'legislasi', 'fraksi', 'pks', 'yusuf', 'cabut', 'draf', 'peta', 'jalan', 'pendidikan', 'https']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'interupsi', 'di', 'paripurna', 'dewan, perwakilan, rakyat', 'anggota', 'badan', 'legislasi', 'fraksi', 'partai, keadilan, sejahtera', 'yusuf', 'pergi', 'draf', 'peta', 'jalan', 'pendidikan', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['heran', 'pejabat', 'malu', 'sedikitpun', 'conflict', 'of', 'interest', 'jamane', 'jaman', 'edan', 'ra', 'ed']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['heran', 'jabat', 'malu', 'sedikit', 'conflict', 'of', 'interest', 'jamane', 'jaman', 'edan', 'ra', 'ed']</t>
+          <t>['interupsi', 'paripurna', 'dewan, perwakilan, rakyat', 'anggota', 'badan', 'legislasi', 'fraksi', 'partai, keadilan, sejahtera', 'yusuf', 'pergi', 'draf', 'peta', 'jalan', 'pendidikan', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['interupsi', 'paripurna', 'dewan wakil rakyat', 'anggota', 'badan', 'legislasi', 'fraksi', 'partai adil sejahtera', 'yusuf', 'pergi', 'draf', 'peta', 'jalan', 'didik', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14279</v>
+        <v>33191</v>
       </c>
       <c r="C31" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt polisi hilang kendali</t>
+          <t>rt sekedar mengingatkan bagi yg suka lupa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'polisi', 'hilang', 'kendali']</t>
+          <t>['rt', 'sekedar', 'mengingatkan', 'bagi', 'yg', 'suka', 'lupa']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'sekadar', 'mengingatkan', 'bagi', 'yang', 'suka', 'lupa']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['polisi', 'hilang', 'kendali']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['polisi', 'hilang', 'kendali']</t>
+          <t>['suka', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['suka', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14280</v>
+        <v>33192</v>
       </c>
       <c r="C32" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto legen mangir</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'legen', 'mangir']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'legen', 'mangir']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14281</v>
+        <v>33193</v>
       </c>
       <c r="C33" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt pujian dari sesama pujian tuk insan shalih dan taqwa dari sesamanya mungkin kabar gembira seiring pahala tapi tetap saja </t>
+          <t>rt anakanak syam dihujani bom di garis depan dicekam musim dingin di pengungsian dihangatkan salam dari indonesia dim</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'pujian', 'dari', 'sesama', 'pujian', 'tuk', 'insan', 'shalih', 'dan', 'taqwa', 'dari', 'sesamanya', 'mungkin', 'kabar', 'gembira', 'seiring', 'pahala', 'tapi', 'tetap', 'saja']</t>
+          <t>['rt', 'anakanak', 'syam', 'dihujani', 'bom', 'di', 'garis', 'depan', 'dicekam', 'musim', 'dingin', 'di', 'pengungsian', 'dihangatkan', 'salam', 'dari', 'indonesia', 'dim']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'anakanak', 'syam', 'dihujani', 'bom', 'di', 'garis', 'depan', 'dicekam', 'musim', 'dingin', 'di', 'pengungsian', 'dihangatkan', 'salam', 'dari', 'indonesia', 'dim']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['pujian', 'pujian', 'tuk', 'insan', 'shalih', 'taqwa', 'sesamanya', 'kabar', 'gembira', 'seiring', 'pahala']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['puji', 'puji', 'tuk', 'insan', 'shalih', 'taqwa', 'sama', 'kabar', 'gembira', 'iring', 'pahala']</t>
+          <t>['anakanak', 'syam', 'dihujani', 'bom', 'garis', 'dicekam', 'musim', 'dingin', 'pengungsian', 'dihangatkan', 'salam', 'indonesia', 'dim']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['anakanak', 'syam', 'hujan', 'bom', 'garis', 'cekam', 'musim', 'dingin', 'ungsi', 'hangat', 'salam', 'indonesia', 'dim']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14282</v>
+        <v>33194</v>
       </c>
       <c r="C34" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt cool semoga mindset kita bisa ikut berubah ya jangan karena benci pemimpinnya inisiatif bagus ini digagalkan</t>
+          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'cool', 'semoga', 'mindset', 'kita', 'bisa', 'ikut', 'berubah', 'ya', 'jangan', 'karena', 'benci', 'pemimpinnya', 'inisiatif', 'bagus', 'ini', 'digagalkan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['cool', 'semoga', 'mindset', 'berubah', 'benci', 'pemimpinnya', 'inisiatif', 'bagus', 'digagalkan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['cool', 'moga', 'mindset', 'ubah', 'benci', 'pimpin', 'inisiatif', 'bagus', 'gagal']</t>
+          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14283</v>
+        <v>33195</v>
       </c>
       <c r="C35" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt bpjs kesehatan surplus triliun mufida kembalikan iuran seperti semula</t>
+          <t>rt maka lengkap sudah penguasaan asing atas udara indonesia setelah pemerintah juga mengijinkan pengelolaan bandara nasio</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'bpjs', 'kesehatan', 'surplus', 'triliun', 'mufida', 'kembalikan', 'iuran', 'seperti', 'semula']</t>
+          <t>['rt', 'maka', 'lengkap', 'sudah', 'penguasaan', 'asing', 'atas', 'udara', 'indonesia', 'setelah', 'pemerintah', 'juga', 'mengijinkan', 'pengelolaan', 'bandara', 'nasio']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'maka', 'lengkap', 'sudah', 'penguasaan', 'asing', 'atas', 'udara', 'indonesia', 'setelah', 'pemerintah', 'juga', 'mengijinkan', 'pengelolaan', 'bandara', 'nasio']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['bpjs', 'kesehatan', 'surplus', 'triliun', 'mufida', 'kembalikan', 'iuran']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['bpjs', 'sehat', 'surplus', 'triliun', 'mufida', 'kembali', 'iur']</t>
+          <t>['lengkap', 'penguasaan', 'asing', 'udara', 'indonesia', 'pemerintah', 'mengijinkan', 'pengelolaan', 'bandara', 'nasio']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['lengkap', 'kuasa', 'asing', 'udara', 'indonesia', 'perintah', 'mengijinkan', 'kelola', 'bandara', 'nasio']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14284</v>
+        <v>33196</v>
       </c>
       <c r="C36" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt tak ada cara memuliakan jiwa kita yang seindah mentaati allah dan tiadalah kita menghinakan jiwa kecuali dengan bermaks</t>
+          <t>rt ketua pengurus besar nahdlatul ulama pbnu kh marsudi syuhud mengatakan hilangnya kata agama dalam peta jalan pendidikan nasi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'tak', 'ada', 'cara', 'memuliakan', 'jiwa', 'kita', 'yang', 'seindah', 'mentaati', 'allah', 'dan', 'tiadalah', 'kita', 'menghinakan', 'jiwa', 'kecuali', 'dengan', 'bermaks']</t>
+          <t>['rt', 'ketua', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'pbnu', 'kh', 'marsudi', 'syuhud', 'mengatakan', 'hilangnya', 'kata', 'agama', 'dalam', 'peta', 'jalan', 'pendidikan', 'nasi']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'ketua', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'pengurus, besar, nahdlatul, ulama', 'kh', 'marsudi', 'syuhud', 'mengatakan', 'hilangnya', 'kata', 'agama', 'dalam', 'peta', 'jalan', 'pendidikan', 'nasi']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['memuliakan', 'jiwa', 'seindah', 'mentaati', 'allah', 'tiadalah', 'menghinakan', 'jiwa', 'kecuali', 'bermaks']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['mulia', 'jiwa', 'indah', 'taat', 'allah', 'tiada', 'hina', 'jiwa', 'kecuali', 'bermaks']</t>
+          <t>['ketua', 'pengurus', 'nahdlatul', 'ulama', 'pengurus, besar, nahdlatul, ulama', 'kh', 'marsudi', 'syuhud', 'hilangnya', 'agama', 'peta', 'jalan', 'pendidikan', 'nasi']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['ketua', 'urus', 'nahdlatul', 'ulama', 'urus besar nahdlatul ulama', 'kh', 'marsudi', 'syuhud', 'hilang', 'agama', 'peta', 'jalan', 'didik', 'nasi']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14285</v>
+        <v>33197</v>
       </c>
       <c r="C37" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt chia maaf bang saya sudah khatam duluan</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'chia', 'maaf', 'bang', 'saya', 'sudah', 'khatam', 'duluan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['chia', 'maaf', 'bang', 'khatam', 'duluan']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['chia', 'maaf', 'bang', 'khatam', 'duluan']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14286</v>
+        <v>33198</v>
       </c>
       <c r="C38" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
+          <t>tim bersinergi dengan dan  mengadakan proses pipanisasi dari titik mata</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+          <t>['tim', 'bersinergi', 'dengan', 'dan', 'mengadakan', 'proses', 'pipanisasi', 'dari', 'titik', 'mata']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['tim', 'bersinergi', 'dengan', 'dan', 'mengadakan', 'proses', 'pipanisasi', 'dari', 'titik', 'mata']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+          <t>['tim', 'bersinergi', 'mengadakan', 'proses', 'pipanisasi', 'titik', 'mata']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['tim', 'sinergi', 'ada', 'proses', 'pipanisasi', 'titik', 'mata']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14287</v>
+        <v>33199</v>
       </c>
       <c r="C39" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t>baru saja mengirim video pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['mengirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14288</v>
+        <v>33200</v>
       </c>
       <c r="C40" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt saya sbg santri dan pks sbg partai islam rahmatan lil alamin yg mementingkan maslahat umat dan bangsa sangat mendukung pen</t>
+          <t>rt bagaimana kisah ki bagus hadikusumo saat menumpahkan sake pemberian kaisar hirohito selengkapnya di</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'sbg', 'santri', 'dan', 'pks', 'sbg', 'partai', 'islam', 'rahmatan', 'lil', 'alamin', 'yg', 'mementingkan', 'maslahat', 'umat', 'dan', 'bangsa', 'sangat', 'mendukung', 'pen']</t>
+          <t>['rt', 'bagaimana', 'kisah', 'ki', 'bagus', 'hadikusumo', 'saat', 'menumpahkan', 'sake', 'pemberian', 'kaisar', 'hirohito', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'bagaimana', 'kisah', 'ki', 'bagus', 'hadikusumo', 'saat', 'menumpahkan', 'sake', 'pemberian', 'kaisar', 'hirohito', 'selengkapnya', 'di']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['sbg', 'santri', 'pks', 'sbg', 'partai', 'islam', 'rahmatan', 'lil', 'alamin', 'mementingkan', 'maslahat', 'umat', 'bangsa', 'mendukung']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['sbg', 'santri', 'pks', 'sbg', 'partai', 'islam', 'rahmat', 'lil', 'alamin', 'penting', 'maslahat', 'umat', 'bangsa', 'dukung']</t>
+          <t>['kisah', 'ki', 'bagus', 'hadikusumo', 'menumpahkan', 'sake', 'pemberian', 'kaisar', 'hirohito', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['kisah', 'ki', 'bagus', 'hadikusumo', 'tumpah', 'sake', 'beri', 'kaisar', 'hirohito', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14289</v>
+        <v>33201</v>
       </c>
       <c r="C41" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt jk bagaimana mau mengkritik kalau bertanya saja tidak boleh</t>
+          <t>baru saja mengirim foto legen mangir</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'jk', 'bagaimana', 'mau', 'mengkritik', 'kalau', 'bertanya', 'saja', 'tidak', 'boleh']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['jk', 'mengkritik']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['jk', 'kritik']</t>
+          <t>['mengirim', 'foto', 'legen', 'mangir']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14290</v>
+        <v>33202</v>
       </c>
       <c r="C42" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt in indonesia even writing an exam problem can land someone in jail</t>
+          <t>baru saja mengirim foto legen mangir</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'in', 'indonesia', 'even', 'writing', 'an', 'exam', 'problem', 'can', 'land', 'someone', 'in', 'jail']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['in', 'indonesia', 'even', 'writing', 'an', 'exam', 'problem', 'can', 'land', 'someone', 'in', 'jail']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['in', 'indonesia', 'even', 'writing', 'an', 'exam', 'problem', 'can', 'land', 'someone', 'in', 'jail']</t>
+          <t>['mengirim', 'foto', 'legen', 'mangir']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'legen', 'mangir']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14291</v>
+        <v>33203</v>
       </c>
       <c r="C43" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto jabal tsur makkah</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'jabal', 'tsur', 'makkah']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'jabal', 'tsur', 'makkah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'jabal', 'tsur', 'makkah']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14292</v>
+        <v>33204</v>
       </c>
       <c r="C44" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt tepat tahun lalu kesombongan yang berakibat puluhan ribu kematian</t>
+          <t xml:space="preserve">rt memang aneh petajalanpendidikannasional hanya sebut budaya tanpa sebut agama itu tidak sesuai dg uudnri yg dlm bab </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'tepat', 'tahun', 'lalu', 'kesombongan', 'yang', 'berakibat', 'puluhan', 'ribu', 'kematian']</t>
+          <t>['rt', 'memang', 'aneh', 'petajalanpendidikannasional', 'hanya', 'sebut', 'budaya', 'tanpa', 'sebut', 'agama', 'itu', 'tidak', 'sesuai', 'dg', 'uudnri', 'yg', 'dlm', 'bab']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'memang', 'aneh', 'petajalanpendidikannasional', 'hanya', 'sebut', 'budaya', 'tanpa', 'sebut', 'agama', 'itu', 'tidak', 'sesuai', 'dengan', 'uudnri', 'yang', 'dalam', 'bab']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['kesombongan', 'berakibat', 'puluhan', 'ribu', 'kematian']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['sombong', 'akibat', 'puluh', 'ribu', 'mati']</t>
+          <t>['aneh', 'petajalanpendidikannasional', 'budaya', 'agama', 'sesuai', 'uudnri', 'bab']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['aneh', 'petajalanpendidikannasional', 'budaya', 'agama', 'sesuai', 'uudnri', 'bab']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14293</v>
+        <v>33205</v>
       </c>
       <c r="C45" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt bismillah karya terbaik ustadz sang pangeran amp jannisary terakhir hanya</t>
+          <t>rt muhammadiyah sebagai bagian dari elemen bangsa indonesia menghendaki kritikkritik konstruktif terhadap pemerintah haeda</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'bismillah', 'karya', 'terbaik', 'ustadz', 'sang', 'pangeran', 'amp', 'jannisary', 'terakhir', 'hanya']</t>
+          <t>['rt', 'muhammadiyah', 'sebagai', 'bagian', 'dari', 'elemen', 'bangsa', 'indonesia', 'menghendaki', 'kritikkritik', 'konstruktif', 'terhadap', 'pemerintah', 'haeda']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'muhammadiyah', 'sebagai', 'bagian', 'dari', 'elemen', 'bangsa', 'indonesia', 'menghendaki', 'kritikkritik', 'konstruktif', 'terhadap', 'pemerintah', 'haeda']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['bismillah', 'karya', 'terbaik', 'ustadz', 'sang', 'pangeran', 'jannisary']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['bismillah', 'karya', 'baik', 'ustadz', 'sang', 'pangeran', 'jannisary']</t>
+          <t>['muhammadiyah', 'elemen', 'bangsa', 'indonesia', 'kritikkritik', 'konstruktif', 'pemerintah', 'haeda']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['muhammadiyah', 'elemen', 'bangsa', 'indonesia', 'kritikkritik', 'konstruktif', 'perintah', 'haeda']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14294</v>
+        <v>33206</v>
       </c>
       <c r="C46" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt pks ingatkan utang indonesia sudah level membahayakan total bunga yang harus dibayarkan indonesia mencapai rp</t>
+          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'pks', 'ingatkan', 'utang', 'indonesia', 'sudah', 'level', 'membahayakan', 'total', 'bunga', 'yang', 'harus', 'dibayarkan', 'indonesia', 'mencapai', 'rp']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['pks', 'ingatkan', 'utang', 'indonesia', 'level', 'membahayakan', 'total', 'bunga', 'dibayarkan', 'indonesia', 'mencapai', 'rp']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['pks', 'ingat', 'utang', 'indonesia', 'level', 'bahaya', 'total', 'bunga', 'bayar', 'indonesia', 'capai', 'rp']</t>
+          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14295</v>
+        <v>33207</v>
       </c>
       <c r="C47" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt kapal ikan berbendera tiongkok paling sering melakukan kekerasan dan penganiyaan dalam kerja paksa dan bahkan perdagangan</t>
+          <t>rt pak kyai sebutannya pada usia thn sudah dipandang pantas untuk memimpin tni meskipun dengan paru yg tinggal sep</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'kapal', 'ikan', 'berbendera', 'tiongkok', 'paling', 'sering', 'melakukan', 'kekerasan', 'dan', 'penganiyaan', 'dalam', 'kerja', 'paksa', 'dan', 'bahkan', 'perdagangan']</t>
+          <t>['rt', 'pak', 'kyai', 'sebutannya', 'pada', 'usia', 'thn', 'sudah', 'dipandang', 'pantas', 'untuk', 'memimpin', 'tni', 'meskipun', 'dengan', 'paru', 'yg', 'tinggal', 'sep']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'pak', 'kiai', 'sebutannya', 'pada', 'usia', 'tahun', 'sudah', 'dipandang', 'pantas', 'untuk', 'memimpin', 'tentara, nasional, indonesia', 'meskipun', 'dengan', 'paru', 'yang', 'tinggal', 'sep']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['kapal', 'ikan', 'berbendera', 'tiongkok', 'kekerasan', 'penganiyaan', 'kerja', 'paksa', 'perdagangan']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['kapal', 'ikan', 'bendera', 'tiongkok', 'keras', 'penganiyaan', 'kerja', 'paksa', 'dagang']</t>
+          <t>['kiai', 'sebutannya', 'usia', 'dipandang', 'memimpin', 'tentara, nasional, indonesia', 'paru', 'tinggal', 'sep']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['kiai', 'sebut', 'usia', 'pandang', 'pimpin', 'tentara nasional indonesia', 'paru', 'tinggal', 'sep']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14296</v>
+        <v>33208</v>
       </c>
       <c r="C48" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>angkringan pak semi jl cuwiri jogokariyan teh panasnya juara sedunia fana no debat</t>
+          <t>rt tiga polisi diduga penembak laskar fpi dicopot jabatan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['angkringan', 'pak', 'semi', 'jl', 'cuwiri', 'jogokariyan', 'teh', 'panasnya', 'juara', 'sedunia', 'fana', 'no', 'debat']</t>
+          <t>['rt', 'tiga', 'polisi', 'diduga', 'penembak', 'laskar', 'fpi', 'dicopot', 'jabatan']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'tiga', 'polisi', 'diduga', 'penembak', 'laskar', 'front, pembela, islam', 'dicopot', 'jabatan']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['angkringan', 'semi', 'jl', 'cuwiri', 'jogokariyan', 'teh', 'panasnya', 'juara', 'sedunia', 'fana', 'no', 'debat']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['angkring', 'semi', 'jl', 'cuwiri', 'jogokariyan', 'teh', 'panas', 'juara', 'dunia', 'fana', 'no', 'debat']</t>
+          <t>['polisi', 'diduga', 'penembak', 'laskar', 'front, pembela, islam', 'dicopot', 'jabatan']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['polisi', 'duga', 'tembak', 'laskar', 'front bela islam', 'copot', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14297</v>
+        <v>33209</v>
       </c>
       <c r="C49" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt mantan wakil menteri luar negeri dino patti djalal mengaku tak gentar menghadapi sindikat mafia tanah yang sudah merugikan</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'mantan', 'wakil', 'menteri', 'luar', 'negeri', 'dino', 'patti', 'djalal', 'mengaku', 'tak', 'gentar', 'menghadapi', 'sindikat', 'mafia', 'tanah', 'yang', 'sudah', 'merugikan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['mantan', 'wakil', 'menteri', 'negeri', 'dino', 'patti', 'djalal', 'mengaku', 'gentar', 'menghadapi', 'sindikat', 'mafia', 'tanah', 'merugikan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['mantan', 'wakil', 'menteri', 'negeri', 'dino', 'patti', 'djalal', 'aku', 'gentar', 'hadap', 'sindikat', 'mafia', 'tanah', 'rugi']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14298</v>
+        <v>33210</v>
       </c>
       <c r="C50" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt kpd media korban mafia tanah rakyat indonesia berikut tanggapan saya di ig mengenai upaya anggota</t>
+          <t>rt jaminan iman iman memang tak menjamin kita tuk selalu berlimpah dan tertawa tapi ia membuat kita merasakan lembut cintany</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'kpd', 'media', 'korban', 'mafia', 'tanah', 'rakyat', 'indonesia', 'berikut', 'tanggapan', 'saya', 'di', 'ig', 'mengenai', 'upaya', 'anggota']</t>
+          <t>['rt', 'jaminan', 'iman', 'iman', 'memang', 'tak', 'menjamin', 'kita', 'tuk', 'selalu', 'berlimpah', 'dan', 'tertawa', 'tapi', 'ia', 'membuat', 'kita', 'merasakan', 'lembut', 'cintany']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'jaminan', 'iman', 'iman', 'memang', 'tak', 'menjamin', 'kita', 'untuk', 'selalu', 'berlimpah', 'dan', 'tertawa', 'tapi', 'ia', 'membuat', 'kita', 'merasakan', 'lembut', 'cintany']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['kpd', 'media', 'korban', 'mafia', 'tanah', 'rakyat', 'indonesia', 'tanggapan', 'ig', 'upaya', 'anggota']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['kpd', 'media', 'korban', 'mafia', 'tanah', 'rakyat', 'indonesia', 'tanggap', 'ig', 'upaya', 'anggota']</t>
+          <t>['jaminan', 'iman', 'iman', 'menjamin', 'berlimpah', 'tertawa', 'merasakan', 'lembut', 'cintany']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['jamin', 'iman', 'iman', 'jamin', 'limpah', 'tertawa', 'rasa', 'lembut', 'cintany']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14299</v>
+        <v>33211</v>
       </c>
       <c r="C51" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>nggak ada pilihan sarung dengan celana pendek tanpa celana dalam ya mas lek</t>
+          <t xml:space="preserve">rt syuhada dijadikan tersangka djoko tjandra cuma dituntut th penjara dan denda jt gimana sih perasaan teman yg </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['nggak', 'ada', 'pilihan', 'sarung', 'dengan', 'celana', 'pendek', 'tanpa', 'celana', 'dalam', 'ya', 'mas', 'lek']</t>
+          <t>['rt', 'syuhada', 'dijadikan', 'tersangka', 'djoko', 'tjandra', 'cuma', 'dituntut', 'th', 'penjara', 'dan', 'denda', 'jt', 'gimana', 'sih', 'perasaan', 'teman', 'yg']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'syuhada', 'dijadikan', 'tersangka', 'djoko', 'tjandra', 'cuma', 'dituntut', 'tahun', 'penjara', 'dan', 'denda', 'juta', 'bagaimana', 'sih', 'perasaan', 'teman', 'yang']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['nggak', 'pilihan', 'sarung', 'celana', 'pendek', 'celana', 'mas', 'lek']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['nggak', 'pilih', 'sarung', 'celana', 'pendek', 'celana', 'mas', 'lek']</t>
+          <t>['syuhada', 'dijadikan', 'tersangka', 'djoko', 'tjandra', 'dituntut', 'penjara', 'denda', 'juta', 'perasaan', 'teman']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['syuhada', 'jadi', 'sangka', 'djoko', 'tjandra', 'tuntut', 'penjara', 'denda', 'juta', 'asa', 'teman']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14300</v>
+        <v>33212</v>
       </c>
       <c r="C52" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt nurhayati di balik donasi rp  untuk penanganan corona</t>
+          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'nurhayati', 'di', 'balik', 'donasi', 'rp', 'untuk', 'penanganan', 'corona']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['nurhayati', 'donasi', 'rp', 'penanganan', 'corona']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['nurhayati', 'donasi', 'rp', 'tangan', 'corona']</t>
+          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14301</v>
+        <v>33213</v>
       </c>
       <c r="C53" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt gak proporsional jika mempertanyakan kenapa wardah memberikan beasiswa pada muslim ya suka yang punya duit dong </t>
+          <t>rt salah satu surat gubernur dki yang pernah dikirim ke dprd untuk pelepasan saham di perusahaan bir anies telah tiga kali menyur</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'gak', 'proporsional', 'jika', 'mempertanyakan', 'kenapa', 'wardah', 'memberikan', 'beasiswa', 'pada', 'muslim', 'ya', 'suka', 'yang', 'punya', 'duit', 'dong']</t>
+          <t>['rt', 'salah', 'satu', 'surat', 'gubernur', 'dki', 'yang', 'pernah', 'dikirim', 'ke', 'dprd', 'untuk', 'pelepasan', 'saham', 'di', 'perusahaan', 'bir', 'anies', 'telah', 'tiga', 'kali', 'menyur']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'salah', 'satu', 'surat', 'gubernur', 'daerah, khusus, ibukota', 'yang', 'pernah', 'dikirim', 'ke', 'dewan, perwakilan, rakyat, daerah', 'untuk', 'pelepasan', 'saham', 'di', 'perusahaan', 'bir', 'anies', 'telah', 'tiga', 'kali', 'menyur']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['proporsional', 'wardah', 'beasiswa', 'muslim', 'suka', 'duit']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['proporsional', 'wardah', 'beasiswa', 'muslim', 'suka', 'duit']</t>
+          <t>['salah', 'surat', 'gubernur', 'daerah, khusus, ibukota', 'dikirim', 'dewan, perwakilan, rakyat, daerah', 'pelepasan', 'saham', 'perusahaan', 'bir', 'anies', 'kali', 'menyur']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['salah', 'surat', 'gubernur', 'daerah khusus ibukota', 'kirim', 'dewan wakil rakyat daerah', 'lepas', 'saham', 'usaha', 'bir', 'anies', 'kali', 'menyur']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14302</v>
+        <v>33214</v>
       </c>
       <c r="C54" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt hrs dan menantunya plus shabri lubis berada di satu sel</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'hrs', 'dan', 'menantunya', 'plus', 'shabri', 'lubis', 'berada', 'di', 'satu', 'sel']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['hrs', 'menantunya', 'plus', 'shabri', 'lubis', 'sel']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['hrs', 'menantu', 'plus', 'shabri', 'lubis', 'sel']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14303</v>
+        <v>33215</v>
       </c>
       <c r="C55" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt kemana itu yg kmrn ngotot ngejar hrs dan rs ummi</t>
+          <t>rt kajian bersama ustadz salim  fillah</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'kemana', 'itu', 'yg', 'kmrn', 'ngotot', 'ngejar', 'hrs', 'dan', 'rs', 'ummi']</t>
+          <t>['rt', 'kajian', 'bersama', 'ustadz', 'salim', 'fillah']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'kajian', 'bersama', 'ustaz', 'salim', 'fillah']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['kemana', 'kmrn', 'ngotot', 'ngejar', 'hrs', 'rs', 'ummi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['mana', 'kmrn', 'ngotot', 'ngejar', 'hrs', 'rs', 'ummi']</t>
+          <t>['kajian', 'ustaz', 'salim', 'fillah']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['kaji', 'ustaz', 'salim', 'fillah']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14304</v>
+        <v>33216</v>
       </c>
       <c r="C56" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t>rt demi kewibawaan amp kehormatan ri seharusnya tdk hanya cukup mencabut perpres no yg sangat amoral tsb tetapi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'demi', 'kewibawaan', 'amp', 'kehormatan', 'ri', 'seharusnya', 'tdk', 'hanya', 'cukup', 'mencabut', 'perpres', 'no', 'yg', 'sangat', 'amoral', 'tsb', 'tetapi']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'demi', 'kewibawaan', 'amp', 'kehormatan', 'ri', 'seharusnya', 'tidak', 'hanya', 'cukup', 'mencabut', 'peraturan, presiden', 'no', 'yang', 'sangat', 'amoral', 'tersebut', 'tetapi']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['kewibawaan', 'kehormatan', 'ri', 'mencabut', 'peraturan, presiden', 'no', 'amoral']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['wibawa', 'hormat', 'ri', 'cabut', 'atur presiden', 'no', 'amoral']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14305</v>
+        <v>33217</v>
       </c>
       <c r="C57" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt iya tim kuasa hukum melaporkan dino dalam dugaan tindak pidana pencemaran nama baik hoaks dan keonaran menggunakan </t>
+          <t>baru saja mengirim foto masjidil haram</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'iya', 'tim', 'kuasa', 'hukum', 'melaporkan', 'dino', 'dalam', 'dugaan', 'tindak', 'pidana', 'pencemaran', 'nama', 'baik', 'hoaks', 'dan', 'keonaran', 'menggunakan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'masjidil', 'haram']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'masjidil', 'haram']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['iya', 'tim', 'kuasa', 'hukum', 'melaporkan', 'dino', 'dugaan', 'tindak', 'pidana', 'pencemaran', 'nama', 'hoaks', 'keonaran']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['iya', 'tim', 'kuasa', 'hukum', 'lapor', 'dino', 'duga', 'tindak', 'pidana', 'cemar', 'nama', 'hoaks', 'onar']</t>
+          <t>['mengirim', 'foto', 'masjidil', 'haram']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'masjidil', 'haram']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14306</v>
+        <v>33218</v>
       </c>
       <c r="C58" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt me saling mendoakan lebih penting daripada berjumpa dan bertemu sesekali lebih menguatkan cinta daripada selalu bersama berte</t>
+          <t>baru saja mengirim video special region of yogyakarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'me', 'saling', 'mendoakan', 'lebih', 'penting', 'daripada', 'berjumpa', 'dan', 'bertemu', 'sesekali', 'lebih', 'menguatkan', 'cinta', 'daripada', 'selalu', 'bersama', 'berte']</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['me', 'mendoakan', 'berjumpa', 'bertemu', 'menguatkan', 'cinta', 'berte']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['me', 'doa', 'jumpa', 'temu', 'kuat', 'cinta', 'berte']</t>
+          <t>['mengirim', 'video', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['kirim', 'video', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14307</v>
+        <v>33219</v>
       </c>
       <c r="C59" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt selamat pagi kakak</t>
+          <t>rt apa artinya pemerintah daerah tokoh agama dan tokoh gereja selalu menginginkan bahwa minuman keras itu menjadi haram di papu</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'pagi', 'kakak']</t>
+          <t>['rt', 'apa', 'artinya', 'pemerintah', 'daerah', 'tokoh', 'agama', 'dan', 'tokoh', 'gereja', 'selalu', 'menginginkan', 'bahwa', 'minuman', 'keras', 'itu', 'menjadi', 'haram', 'di', 'papu']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'apa', 'artinya', 'pemerintah', 'daerah', 'tokoh', 'agama', 'dan', 'tokoh', 'gereja', 'selalu', 'menginginkan', 'bahwa', 'minuman', 'keras', 'itu', 'menjadi', 'haram', 'di', 'papu']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'kakak']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'kakak']</t>
+          <t>['pemerintah', 'daerah', 'tokoh', 'agama', 'tokoh', 'gereja', 'minuman', 'keras', 'haram', 'papu']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['perintah', 'daerah', 'tokoh', 'agama', 'tokoh', 'gereja', 'minum', 'keras', 'haram', 'papu']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14308</v>
+        <v>33220</v>
       </c>
       <c r="C60" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt seru ceritanya bahasanya mengagumkan ciri khas ustadz setiap menulis buku</t>
+          <t xml:space="preserve">rt pelonggaran izin industri miras membahayakan generasi muda bangsa memang negara perlu investasi </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'seru', 'ceritanya', 'bahasanya', 'mengagumkan', 'ciri', 'khas', 'ustadz', 'setiap', 'menulis', 'buku']</t>
+          <t>['rt', 'pelonggaran', 'izin', 'industri', 'miras', 'membahayakan', 'generasi', 'muda', 'bangsa', 'memang', 'negara', 'perlu', 'investasi']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'pelonggaran', 'izin', 'industri', 'minuman, keras', 'membahayakan', 'generasi', 'muda', 'bangsa', 'memang', 'negara', 'perlu', 'investasi']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['seru', 'ceritanya', 'bahasanya', 'mengagumkan', 'ciri', 'khas', 'ustadz', 'menulis', 'buku']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['seru', 'cerita', 'bahasa', 'kagum', 'ciri', 'khas', 'ustadz', 'tulis', 'buku']</t>
+          <t>['pelonggaran', 'izin', 'industri', 'minuman, keras', 'membahayakan', 'generasi', 'muda', 'bangsa', 'negara', 'investasi']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['longgar', 'izin', 'industri', 'minum keras', 'bahaya', 'generasi', 'muda', 'bangsa', 'negara', 'investasi']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14309</v>
+        <v>33221</v>
       </c>
       <c r="C61" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt buku keren ini dari cerita buku ini kita bisa belajar untuk waspadai jebakan</t>
+          <t xml:space="preserve">rt dalam islam ajaran agama bukan sekedar anjuran dan khutbah termasuk ajaran agama adalah penegakan kepemimpinan yang </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'buku', 'keren', 'ini', 'dari', 'cerita', 'buku', 'ini', 'kita', 'bisa', 'belajar', 'untuk', 'waspadai', 'jebakan']</t>
+          <t>['rt', 'dalam', 'islam', 'ajaran', 'agama', 'bukan', 'sekedar', 'anjuran', 'dan', 'khutbah', 'termasuk', 'ajaran', 'agama', 'adalah', 'penegakan', 'kepemimpinan', 'yang']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'islam', 'ajaran', 'agama', 'bukan', 'sekadar', 'anjuran', 'dan', 'khotbah', 'termasuk', 'ajaran', 'agama', 'adalah', 'penegakan', 'kepemimpinan', 'yang']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['buku', 'keren', 'cerita', 'buku', 'belajar', 'waspadai', 'jebakan']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['buku', 'keren', 'cerita', 'buku', 'ajar', 'waspada', 'jebak']</t>
+          <t>['islam', 'ajaran', 'agama', 'anjuran', 'khotbah', 'ajaran', 'agama', 'penegakan', 'kepemimpinan']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['islam', 'ajar', 'agama', 'anjur', 'khotbah', 'ajar', 'agama', 'tega', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14310</v>
+        <v>33222</v>
       </c>
       <c r="C62" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt jk bagaimana cara kritik pemerintah tanpa dipanggil polisi</t>
+          <t>rt bekal utama kebersamaan hidup adalah kesabaran sebab kita tahu perjalanan berombongan umumnya lebih lambat dibanding bera</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'jk', 'bagaimana', 'cara', 'kritik', 'pemerintah', 'tanpa', 'dipanggil', 'polisi']</t>
+          <t>['rt', 'bekal', 'utama', 'kebersamaan', 'hidup', 'adalah', 'kesabaran', 'sebab', 'kita', 'tahu', 'perjalanan', 'berombongan', 'umumnya', 'lebih', 'lambat', 'dibanding', 'bera']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'bekal', 'utama', 'kebersamaan', 'hidup', 'adalah', 'kesabaran', 'sebab', 'kita', 'tahu', 'perjalanan', 'berombongan', 'umumnya', 'lebih', 'lambat', 'dibanding', 'bera']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['jk', 'kritik', 'pemerintah', 'dipanggil', 'polisi']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['jk', 'kritik', 'perintah', 'panggil', 'polisi']</t>
+          <t>['bekal', 'utama', 'kebersamaan', 'hidup', 'kesabaran', 'perjalanan', 'berombongan', 'lambat', 'dibanding', 'bera']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['bekal', 'utama', 'sama', 'hidup', 'sabar', 'jalan', 'rombong', 'lambat', 'banding', 'bera']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14311</v>
+        <v>33223</v>
       </c>
       <c r="C63" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>masyaallaah baarakallaahu fiikum pak geisz terimakasih berkenan membaca bukunya menanti masukan dan sarannya</t>
+          <t>baru saja mengirim foto pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['masyaallaah', 'baarakallaahu', 'fiikum', 'pak', 'geisz', 'terimakasih', 'berkenan', 'membaca', 'bukunya', 'menanti', 'masukan', 'dan', 'sarannya']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['masyaallaah', 'baarakallaahu', 'fiikum', 'geisz', 'terimakasih', 'berkenan', 'membaca', 'bukunya', 'masukan', 'sarannya']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['masyaallaah', 'baarakallaahu', 'fiikum', 'geisz', 'terimakasih', 'kenan', 'baca', 'buku', 'masuk', 'saran']</t>
+          <t>['mengirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14312</v>
+        <v>33224</v>
       </c>
       <c r="C64" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt nama penulisnya sudah lama sy dengar berawal dari bbrp teman yg meminta sy membaca tulisan ustadz har</t>
+          <t>rt bagaimana netizen tua indonesia tidak mendapat label tidak sopan oleh microsoft jika petinggi ri pun yg dishare vi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'nama', 'penulisnya', 'sudah', 'lama', 'sy', 'dengar', 'berawal', 'dari', 'bbrp', 'teman', 'yg', 'meminta', 'sy', 'membaca', 'tulisan', 'ustadz', 'har']</t>
+          <t>['rt', 'bagaimana', 'netizen', 'tua', 'indonesia', 'tidak', 'mendapat', 'label', 'tidak', 'sopan', 'oleh', 'microsoft', 'jika', 'petinggi', 'ri', 'pun', 'yg', 'dishare', 'vi']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'bagaimana', 'warganet', 'tua', 'indonesia', 'tidak', 'mendapat', 'label', 'tidak', 'sopan', 'oleh', 'microsoft', 'jika', 'petinggi', 'ri', 'pun', 'yang', 'disebarkan', 'vi']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['nama', 'penulisnya', 'sy', 'dengar', 'bbrp', 'teman', 'sy', 'membaca', 'tulisan', 'ustadz', 'har']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['nama', 'tulis', 'sy', 'dengar', 'bbrp', 'teman', 'sy', 'baca', 'tulis', 'ustadz', 'har']</t>
+          <t>['warganet', 'tua', 'indonesia', 'label', 'sopan', 'microsoft', 'petinggi', 'ri', 'disebarkan', 'vi']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['warganet', 'tua', 'indonesia', 'label', 'sopan', 'microsoft', 'petinggi', 'ri', 'sebar', 'vi']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14313</v>
+        <v>33225</v>
       </c>
       <c r="C65" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t>rt mohon izin memperkenalkan logo baru sahabat alaqsha mohon sahabat sekalian berkenan mendoaka</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'mohon', 'izin', 'memperkenalkan', 'logo', 'baru', 'sahabat', 'alaqsha', 'mohon', 'sahabat', 'sekalian', 'berkenan', 'mendoaka']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'mohon', 'izin', 'memperkenalkan', 'logo', 'baru', 'sahabat', 'alaqsha', 'mohon', 'sahabat', 'sekalian', 'berkenan', 'mendoaka']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['mohon', 'izin', 'memperkenalkan', 'logo', 'sahabat', 'alaqsha', 'mohon', 'sahabat', 'berkenan', 'mendoaka']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['mohon', 'izin', 'kenal', 'logo', 'sahabat', 'alaqsha', 'mohon', 'sahabat', 'kenan', 'mendoaka']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14314</v>
+        <v>33226</v>
       </c>
       <c r="C66" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt fatwa mui aktivitas buzzer dan yang mendukungnya haram</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'fatwa', 'mui', 'aktivitas', 'buzzer', 'dan', 'yang', 'mendukungnya', 'haram']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['fatwa', 'mui', 'aktivitas', 'buzzer', 'mendukungnya', 'haram']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['fatwa', 'mui', 'aktivitas', 'buzzer', 'dukung', 'haram']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14315</v>
+        <v>33227</v>
       </c>
       <c r="C67" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt nasib guru hervina bukan di zaman romusha</t>
+          <t>rt kemarin thn lalu terjadi pembantaian jamaah solat subuh masjid alibrahimi yg membunuh orang dan melukai ora</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'nasib', 'guru', 'hervina', 'bukan', 'di', 'zaman', 'romusha']</t>
+          <t>['rt', 'kemarin', 'thn', 'lalu', 'terjadi', 'pembantaian', 'jamaah', 'solat', 'subuh', 'masjid', 'alibrahimi', 'yg', 'membunuh', 'orang', 'dan', 'melukai', 'ora']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'kemarin', 'tahun', 'lalu', 'terjadi', 'pembantaian', 'jamaah', 'salat', 'subuh', 'masjid', 'alibrahimi', 'yang', 'membunuh', 'orang', 'dan', 'melukai', 'tidak']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['nasib', 'guru', 'hervina', 'zaman', 'romusha']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['nasib', 'guru', 'hervina', 'zaman', 'romusha']</t>
+          <t>['kemarin', 'pembantaian', 'jamaah', 'salat', 'subuh', 'masjid', 'alibrahimi', 'membunuh', 'orang', 'melukai']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['kemarin', 'bantai', 'jamaah', 'salat', 'subuh', 'masjid', 'alibrahimi', 'bunuh', 'orang', 'luka']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14316</v>
+        <v>33228</v>
       </c>
       <c r="C68" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt sohibuliman inna lillahi wa inna ilaihi rajiun insyaallah mas gs husnul khatimah amin saya beruntung sempat satu panel </t>
+          <t>baru saja mengirim foto jabal uhud</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'sohibuliman', 'inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'insyaallah', 'mas', 'gs', 'husnul', 'khatimah', 'amin', 'saya', 'beruntung', 'sempat', 'satu', 'panel']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'jabal', 'uhud']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'jabal', 'uhud']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['sohibuliman', 'inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'insyaallah', 'mas', 'gs', 'husnul', 'khatimah', 'amin', 'beruntung', 'panel']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['sohibuliman', 'inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'insyaallah', 'mas', 'gs', 'husnul', 'khatimah', 'amin', 'untung', 'panel']</t>
+          <t>['mengirim', 'foto', 'jabal', 'uhud']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'jabal', 'uhud']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14317</v>
+        <v>33229</v>
       </c>
       <c r="C69" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt pelaku penembakan yang menyebabkan tiga orang tewas di cengkareng adalah seorang anggota polisi oknum polisi berinisi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'pelaku', 'penembakan', 'yang', 'menyebabkan', 'tiga', 'orang', 'tewas', 'di', 'cengkareng', 'adalah', 'seorang', 'anggota', 'polisi', 'oknum', 'polisi', 'berinisi']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'pelaku', 'penembakan', 'yang', 'menyebabkan', 'tiga', 'orang', 'tewas', 'di', 'cengkareng', 'adalah', 'seorang', 'anggota', 'polisi', 'oknum', 'polisi', 'berinisi']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pelaku', 'penembakan', 'menyebabkan', 'orang', 'tewas', 'cengkareng', 'anggota', 'polisi', 'oknum', 'polisi', 'berinisi']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['laku', 'tembak', 'sebab', 'orang', 'tewas', 'cengkareng', 'anggota', 'polisi', 'oknum', 'polisi', 'risi']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14318</v>
+        <v>33230</v>
       </c>
       <c r="C70" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt ini adalah tuduhan amp fitnah keji yg tidak bisa dipertjgwbkan kpd seorang tokoh amp pemimpin muslim penting tingkat dunia yg</t>
+          <t>baru saja mengirim video pesantren masyarakat merapimerbabu pm</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'adalah', 'tuduhan', 'amp', 'fitnah', 'keji', 'yg', 'tidak', 'bisa', 'dipertjgwbkan', 'kpd', 'seorang', 'tokoh', 'amp', 'pemimpin', 'muslim', 'penting', 'tingkat', 'dunia', 'yg']</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['tuduhan', 'fitnah', 'keji', 'dipertjgwbkan', 'kpd', 'tokoh', 'pemimpin', 'muslim', 'tingkat', 'dunia']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['tuduh', 'fitnah', 'keji', 'dipertjgwbkan', 'kpd', 'tokoh', 'pimpin', 'muslim', 'tingkat', 'dunia']</t>
+          <t>['mengirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['kirim', 'video', 'pesantren', 'masyarakat', 'merapimerbabu', 'pm']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14319</v>
+        <v>33231</v>
       </c>
       <c r="C71" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt kh muhammad cholil dan kh bisri syansuri layak jadi pahlawan nasional</t>
+          <t>rt mengingatkan kembali polri akan bentuk tim khusus usut tewasnya laskar fpi komnas ham amp kontras menyatakan terjadi pe</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'kh', 'muhammad', 'cholil', 'dan', 'kh', 'bisri', 'syansuri', 'layak', 'jadi', 'pahlawan', 'nasional']</t>
+          <t>['rt', 'mengingatkan', 'kembali', 'polri', 'akan', 'bentuk', 'tim', 'khusus', 'usut', 'tewasnya', 'laskar', 'fpi', 'komnas', 'ham', 'amp', 'kontras', 'menyatakan', 'terjadi', 'pe']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'mengingatkan', 'kembali', 'kepolisian, republik, indonesia', 'akan', 'bentuk', 'tim', 'khusus', 'usut', 'tewasnya', 'laskar', 'front, pembela, islam', 'komisi, nasional', 'ham', 'amp', 'kontras', 'menyatakan', 'terjadi', 'pe']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['kh', 'muhammad', 'cholil', 'kh', 'bisri', 'syansuri', 'layak', 'pahlawan', 'nasional']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['kh', 'muhammad', 'cholil', 'kh', 'bisri', 'syansuri', 'layak', 'pahlawan', 'nasional']</t>
+          <t>['kepolisian, republik, indonesia', 'bentuk', 'tim', 'khusus', 'usut', 'tewasnya', 'laskar', 'front, pembela, islam', 'komisi, nasional', 'ham', 'kontras', 'pe']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'bentuk', 'tim', 'khusus', 'usut', 'tewas', 'laskar', 'front bela islam', 'komisi nasional', 'ham', 'kontras', 'pe']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14320</v>
+        <v>33232</v>
       </c>
       <c r="C72" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt setiap kudengar ulama wafat semakin aku cemas jika yang tertinggal hanyalah orang orang tanpa ilmu termasuk diriku prie</t>
+          <t>rt jokowi bisa dikategorikan telah melanggar protokol kesehatan dan patut diberikan sanksi sesuai ketentuan dalam situasi se</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'setiap', 'kudengar', 'ulama', 'wafat', 'semakin', 'aku', 'cemas', 'jika', 'yang', 'tertinggal', 'hanyalah', 'orang', 'orang', 'tanpa', 'ilmu', 'termasuk', 'diriku', 'prie']</t>
+          <t>['rt', 'jokowi', 'bisa', 'dikategorikan', 'telah', 'melanggar', 'protokol', 'kesehatan', 'dan', 'patut', 'diberikan', 'sanksi', 'sesuai', 'ketentuan', 'dalam', 'situasi', 'se']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jokowi', 'bisa', 'dikategorikan', 'telah', 'melanggar', 'protokol', 'kesehatan', 'dan', 'patut', 'diberikan', 'sanksi', 'sesuai', 'ketentuan', 'dalam', 'situasi', 'se']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['kudengar', 'ulama', 'wafat', 'cemas', 'tertinggal', 'orang', 'orang', 'ilmu', 'diriku', 'prie']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['dengar', 'ulama', 'wafat', 'cemas', 'tinggal', 'orang', 'orang', 'ilmu', 'diri', 'prie']</t>
+          <t>['jokowi', 'dikategorikan', 'melanggar', 'protokol', 'kesehatan', 'patut', 'sanksi', 'sesuai', 'ketentuan', 'situasi']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['jokowi', 'kategori', 'langgar', 'protokol', 'sehat', 'patut', 'sanksi', 'sesuai', 'tentu', 'situasi']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14321</v>
+        <v>33233</v>
       </c>
       <c r="C73" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t>rt virtual police resmi beroperasi medsos kini dipantau polisi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'virtual', 'police', 'resmi', 'beroperasi', 'medsos', 'kini', 'dipantau', 'polisi']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'virtual', 'police', 'resmi', 'beroperasi', 'media, sosial', 'kini', 'dipantau', 'polisi']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['virtual', 'police', 'resmi', 'beroperasi', 'media, sosial', 'dipantau', 'polisi']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['virtual', 'police', 'resmi', 'operasi', 'media sosial', 'pantau', 'polisi']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14322</v>
+        <v>33234</v>
       </c>
       <c r="C74" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt sebuah nasehat dari habib salim segaf aljufri ketua majelis syuro</t>
+          <t>rt afra saya menjual original sang pangeran dan janissary terakhir novel salim  fillah dengan potongan hanya rp dap</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'sebuah', 'nasehat', 'dari', 'habib', 'salim', 'segaf', 'aljufri', 'ketua', 'majelis', 'syuro']</t>
+          <t>['rt', 'afra', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah', 'dengan', 'potongan', 'hanya', 'rp', 'dap']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'afra', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah', 'dengan', 'potongan', 'hanya', 'rupiah', 'dap']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['nasehat', 'habib', 'salim', 'segaf', 'aljufri', 'ketua', 'majelis', 'syuro']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['nasehat', 'habib', 'salim', 'segaf', 'aljufri', 'ketua', 'majelis', 'syuro']</t>
+          <t>['afra', 'menjual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah', 'potongan', 'rupiah', 'dap']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['afra', 'jual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah', 'potong', 'rupiah', 'dap']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14323</v>
+        <v>33235</v>
       </c>
       <c r="C75" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt di jepang para guru amat sangat dihargai dan dihormati layaknya seorang kaisar di negara ini banyak guru yang diperlak</t>
+          <t>baru saja mengirim foto makam raja raja mataramimogiri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'jepang', 'para', 'guru', 'amat', 'sangat', 'dihargai', 'dan', 'dihormati', 'layaknya', 'seorang', 'kaisar', 'di', 'negara', 'ini', 'banyak', 'guru', 'yang', 'diperlak']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['jepang', 'guru', 'dihargai', 'dihormati', 'layaknya', 'kaisar', 'negara', 'guru', 'diperlak']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['jepang', 'guru', 'harga', 'hormat', 'layak', 'kaisar', 'negara', 'guru', 'perlak']</t>
+          <t>['mengirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'makam', 'raja', 'raja', 'mataramimogiri']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14324</v>
+        <v>33236</v>
       </c>
       <c r="C76" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt sambutan mas gs ketika buku terbit semoga harapan beliau mewujud maturnuwun san</t>
+          <t xml:space="preserve">rt id bekal utama kebersamaan hidup adalah kesabaran sebab kita tahu perjalanan berombongan umumnya lebih lambat dibanding </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'sambutan', 'mas', 'gs', 'ketika', 'buku', 'terbit', 'semoga', 'harapan', 'beliau', 'mewujud', 'maturnuwun', 'san']</t>
+          <t>['rt', 'id', 'bekal', 'utama', 'kebersamaan', 'hidup', 'adalah', 'kesabaran', 'sebab', 'kita', 'tahu', 'perjalanan', 'berombongan', 'umumnya', 'lebih', 'lambat', 'dibanding']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'id', 'bekal', 'utama', 'kebersamaan', 'hidup', 'adalah', 'kesabaran', 'sebab', 'kita', 'tahu', 'perjalanan', 'berombongan', 'umumnya', 'lebih', 'lambat', 'dibanding']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['sambutan', 'mas', 'gs', 'buku', 'terbit', 'semoga', 'harapan', 'beliau', 'mewujud', 'maturnuwun', 'san']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['sambut', 'mas', 'gs', 'buku', 'terbit', 'moga', 'harap', 'beliau', 'wujud', 'maturnuwun', 'san']</t>
+          <t>['id', 'bekal', 'utama', 'kebersamaan', 'hidup', 'kesabaran', 'perjalanan', 'berombongan', 'lambat', 'dibanding']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['id', 'bekal', 'utama', 'sama', 'hidup', 'sabar', 'jalan', 'rombong', 'lambat', 'banding']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14325</v>
+        <v>33237</v>
       </c>
       <c r="C77" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt innaa lillaahi wa innaa ilaihi raajiuun sugeng tindak njih mas gs perjumpaan sepanggung di ngaji budaya</t>
+          <t>rt ready stock baru datang dari penerbit gt saya menjual original sang pangeran dan janissary terakhir novel salim  fillah</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'innaa', 'lillaahi', 'wa', 'innaa', 'ilaihi', 'raajiuun', 'sugeng', 'tindak', 'njih', 'mas', 'gs', 'perjumpaan', 'sepanggung', 'di', 'ngaji', 'budaya']</t>
+          <t>['rt', 'ready', 'stock', 'baru', 'datang', 'dari', 'penerbit', 'gt', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ready', 'persediaan', 'baru', 'datang', 'dari', 'penerbit', 'begitu', 'saya', 'menjual', 'original', 'sang', 'pangeran', 'dan', 'janissary', 'terakhir', 'novel', 'salim', 'fillah']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['innaa', 'lillaahi', 'wa', 'innaa', 'ilaihi', 'raajiuun', 'sugeng', 'tindak', 'njih', 'mas', 'gs', 'perjumpaan', 'sepanggung', 'ngaji', 'budaya']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['innaa', 'lillaahi', 'wa', 'innaa', 'ilaihi', 'raajiuun', 'sugeng', 'tindak', 'njih', 'mas', 'gs', 'jumpa', 'panggung', 'ngaji', 'budaya']</t>
+          <t>['ready', 'persediaan', 'penerbit', 'menjual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['ready', 'sedia', 'terbit', 'jual', 'original', 'sang', 'pangeran', 'janissary', 'novel', 'salim', 'fillah']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14326</v>
+        <v>33238</v>
       </c>
       <c r="C78" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt nasihat terakhir prie gs untuk pks dan kaderkadernya</t>
+          <t>rt kerumunan jokowi dianggap spontanitas kerumunan hrs di bogor diganjar tersangka</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'nasihat', 'terakhir', 'prie', 'gs', 'untuk', 'pks', 'dan', 'kaderkadernya']</t>
+          <t>['rt', 'kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'hrs', 'di', 'bogor', 'diganjar', 'tersangka']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'harus', 'di', 'bogor', 'diganjar', 'tersangka']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['nasihat', 'prie', 'gs', 'pks', 'kaderkadernya']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['nasihat', 'prie', 'gs', 'pks', 'kaderkadernya']</t>
+          <t>['kerumunan', 'jokowi', 'dianggap', 'spontanitas', 'kerumunan', 'bogor', 'diganjar', 'tersangka']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['kerumun', 'jokowi', 'anggap', 'spontanitas', 'kerumun', 'bogor', 'ganjar', 'sangka']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14327</v>
+        <v>33239</v>
       </c>
       <c r="C79" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>sambutan mas gs ketika buku terbit semoga harapan beliau mewujud maturnuw</t>
+          <t>rt apakah ini pesan tersirat utk karya ust berikutnya sunan kalijogo sultan agung dan hamengkubuwono  https</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['sambutan', 'mas', 'gs', 'ketika', 'buku', 'terbit', 'semoga', 'harapan', 'beliau', 'mewujud', 'maturnuw']</t>
+          <t>['rt', 'apakah', 'ini', 'pesan', 'tersirat', 'utk', 'karya', 'ust', 'berikutnya', 'sunan', 'kalijogo', 'sultan', 'agung', 'dan', 'hamengkubuwono', 'https']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'apakah', 'ini', 'pesan', 'tersirat', 'untuk', 'karya', 'ustaz', 'berikutnya', 'sunan', 'kalijogo', 'sultan', 'agung', 'dan', 'hamengkubuwono', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['sambutan', 'mas', 'gs', 'buku', 'terbit', 'semoga', 'harapan', 'beliau', 'mewujud', 'maturnuw']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['sambut', 'mas', 'gs', 'buku', 'terbit', 'moga', 'harap', 'beliau', 'wujud', 'maturnuw']</t>
+          <t>['pesan', 'tersirat', 'karya', 'ustaz', 'sunan', 'kalijogo', 'sultan', 'agung', 'hamengkubuwono', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['pesan', 'sirat', 'karya', 'ustaz', 'sunan', 'kalijogo', 'sultan', 'agung', 'hamengkubuwono', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14328</v>
+        <v>33240</v>
       </c>
       <c r="C80" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt almarhum mas gs pernah menjadi narasumber acara ngaji budaya dpp pks memperingati hut ke ri dengan tema rumah in</t>
+          <t>rt buku fiksi sejarah perang diponegoro karya ust yg sangat menarik utk dibaca ust sudah berhasil membuat cerit</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'almarhum', 'mas', 'gs', 'pernah', 'menjadi', 'narasumber', 'acara', 'ngaji', 'budaya', 'dpp', 'pks', 'memperingati', 'hut', 'ke', 'ri', 'dengan', 'tema', 'rumah', 'in']</t>
+          <t>['rt', 'buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ust', 'yg', 'sangat', 'menarik', 'utk', 'dibaca', 'ust', 'sudah', 'berhasil', 'membuat', 'cerit']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ustaz', 'yang', 'sangat', 'menarik', 'untuk', 'dibaca', 'ustaz', 'sudah', 'berhasil', 'membuat', 'cerit']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['almarhum', 'mas', 'gs', 'narasumber', 'acara', 'ngaji', 'budaya', 'dpp', 'pks', 'memperingati', 'hut', 'ri', 'tema', 'rumah', 'in']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['almarhum', 'mas', 'gs', 'narasumber', 'acara', 'ngaji', 'budaya', 'dpp', 'pks', 'ingat', 'hut', 'ri', 'tema', 'rumah', 'in']</t>
+          <t>['buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ustaz', 'menarik', 'dibaca', 'ustaz', 'berhasil', 'cerit']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['buku', 'fiksi', 'sejarah', 'perang', 'diponegoro', 'karya', 'ustaz', 'tarik', 'baca', 'ustaz', 'hasil', 'cit']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14329</v>
+        <v>33241</v>
       </c>
       <c r="C81" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto special region of yogyakarta</t>
+          <t xml:space="preserve">rt astar berdoa itu lebih penting dr pada hasilnya krn hasil itu hanya fana benda status dan kehidupan dunia yg tdk abadi </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['rt', 'astar', 'berdoa', 'itu', 'lebih', 'penting', 'dr', 'pada', 'hasilnya', 'krn', 'hasil', 'itu', 'hanya', 'fana', 'benda', 'status', 'dan', 'kehidupan', 'dunia', 'yg', 'tdk', 'abadi']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'astar', 'berdoa', 'itu', 'lebih', 'penting', 'dari', 'pada', 'hasilnya', 'karena', 'hasil', 'itu', 'hanya', 'fana', 'benda', 'status', 'dan', 'kehidupan', 'dunia', 'yang', 'tidak', 'abadi']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
+          <t>['astar', 'berdoa', 'hasilnya', 'hasil', 'fana', 'benda', 'status', 'kehidupan', 'dunia', 'abadi']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['astar', 'doa', 'hasil', 'hasil', 'fana', 'benda', 'status', 'hidup', 'dunia', 'abadi']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14330</v>
+        <v>33242</v>
       </c>
       <c r="C82" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt maka pada tiap doa sesungguhnya kita diharap bersiap untuk menerima yang lebih baik lebih banyak dan lebih indah</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'maka', 'pada', 'tiap', 'doa', 'sesungguhnya', 'kita', 'diharap', 'bersiap', 'untuk', 'menerima', 'yang', 'lebih', 'baik', 'lebih', 'banyak', 'dan', 'lebih', 'indah']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['doa', 'sesungguhnya', 'diharap', 'menerima', 'indah']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['doa', 'sungguh', 'harap', 'terima', 'indah']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14331</v>
+        <v>33243</v>
       </c>
       <c r="C83" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jika dia tidak setia dengan allah swt bagaimana dia mahu setia pasangannya jika dia tidak hormat terhadap ibunya </t>
+          <t>rt bonus dikit sih buat diri sndiri lebih tepatnya mmm jangan brhenti buat evaluasi diri katanya dari ust salim  fillah ht</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'dia', 'tidak', 'setia', 'dengan', 'allah', 'swt', 'bagaimana', 'dia', 'mahu', 'setia', 'pasangannya', 'jika', 'dia', 'tidak', 'hormat', 'terhadap', 'ibunya']</t>
+          <t>['rt', 'bonus', 'dikit', 'sih', 'buat', 'diri', 'sndiri', 'lebih', 'tepatnya', 'mmm', 'jangan', 'brhenti', 'buat', 'evaluasi', 'diri', 'katanya', 'dari', 'ust', 'salim', 'fillah', 'ht']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'bonus', 'sedikit', 'sih', 'buat', 'diri', 'sendiri', 'lebih', 'tepatnya', 'mmm', 'jangan', 'brhenti', 'buat', 'evaluasi', 'diri', 'katanya', 'dari', 'ustaz', 'salim', 'fillah', 'hati']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['setia', 'allah', 'swt', 'mahu', 'setia', 'pasangannya', 'hormat', 'ibunya']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['setia', 'allah', 'swt', 'mahu', 'setia', 'pasang', 'hormat', 'ibu']</t>
+          <t>['bonus', 'tepatnya', 'mmm', 'brhenti', 'evaluasi', 'ustaz', 'salim', 'fillah', 'hati']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['bonus', 'tepat', 'mmm', 'brhenti', 'evaluasi', 'ustaz', 'salim', 'fillah', 'hati']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14332</v>
+        <v>33244</v>
       </c>
       <c r="C84" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>innaa lillaahi wa innaa ilaihi raajiuun sugeng tindak njih mas gs perjumpaan sepanggung di ngaji budaya</t>
+          <t>baru saja mengirim foto special region of yogyakarta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['innaa', 'lillaahi', 'wa', 'innaa', 'ilaihi', 'raajiuun', 'sugeng', 'tindak', 'njih', 'mas', 'gs', 'perjumpaan', 'sepanggung', 'di', 'ngaji', 'budaya']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['innaa', 'lillaahi', 'wa', 'innaa', 'ilaihi', 'raajiuun', 'sugeng', 'tindak', 'njih', 'mas', 'gs', 'perjumpaan', 'sepanggung', 'ngaji', 'budaya']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['innaa', 'lillaahi', 'wa', 'innaa', 'ilaihi', 'raajiuun', 'sugeng', 'tindak', 'njih', 'mas', 'gs', 'jumpa', 'panggung', 'ngaji', 'budaya']</t>
+          <t>['mengirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14333</v>
+        <v>33245</v>
       </c>
       <c r="C85" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt another klepon fake story orientalism at work sayang belum ada yg meneliti ini secara serius untuk jadi tulisan aka</t>
+          <t>baru saja mengirim foto kotagede yogyakarta indonesia</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'another', 'klepon', 'fake', 'story', 'orientalism', 'at', 'work', 'sayang', 'belum', 'ada', 'yg', 'meneliti', 'ini', 'secara', 'serius', 'untuk', 'jadi', 'tulisan', 'aka']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['another', 'klepon', 'fake', 'story', 'orientalism', 'at', 'work', 'sayang', 'meneliti', 'serius', 'tulisan', 'aka']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['another', 'klepon', 'fake', 'story', 'orientalism', 'at', 'work', 'sayang', 'teliti', 'serius', 'tulis', 'aka']</t>
+          <t>['mengirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'kotagede', 'yogyakarta', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14334</v>
+        <v>33246</v>
       </c>
       <c r="C86" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt semestinya presiden joko widodo melihat kenyataannya bahwa masyarakat semakin takut dalam berpendapat apalagi</t>
+          <t>rt viral aksi fpi beri bantuan dibubarkan perahu karetnya dipakai</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'semestinya', 'presiden', 'joko', 'widodo', 'melihat', 'kenyataannya', 'bahwa', 'masyarakat', 'semakin', 'takut', 'dalam', 'berpendapat', 'apalagi']</t>
+          <t>['rt', 'viral', 'aksi', 'fpi', 'beri', 'bantuan', 'dibubarkan', 'perahu', 'karetnya', 'dipakai']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'viral', 'aksi', 'front, pembela, islam', 'beri', 'bantuan', 'dibubarkan', 'perahu', 'karetnya', 'dipakai']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['semestinya', 'presiden', 'joko', 'widodo', 'kenyataannya', 'masyarakat', 'takut', 'berpendapat']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['mesti', 'presiden', 'joko', 'widodo', 'nyata', 'masyarakat', 'takut', 'dapat']</t>
+          <t>['viral', 'aksi', 'front, pembela, islam', 'bantuan', 'dibubarkan', 'perahu', 'karetnya', 'dipakai']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['viral', 'aksi', 'front bela islam', 'bantu', 'bubar', 'perahu', 'karet', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14335</v>
+        <v>33247</v>
       </c>
       <c r="C87" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>baru saja mengirim video legen mangir</t>
+          <t>rt memperbaiki membangkitkan memenangkan rohingya dengan alquran program untuk gizi pakaian</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'video', 'legen', 'mangir']</t>
+          <t>['rt', 'memperbaiki', 'membangkitkan', 'memenangkan', 'rohingya', 'dengan', 'alquran', 'program', 'untuk', 'gizi', 'pakaian']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'memperbaiki', 'membangkitkan', 'memenangkan', 'rohingya', 'dengan', 'alquran', 'program', 'untuk', 'gizi', 'pakaian']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['mengirim', 'video', 'legen', 'mangir']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['kirim', 'video', 'legen', 'mangir']</t>
+          <t>['memperbaiki', 'membangkitkan', 'memenangkan', 'rohingya', 'alquran', 'program', 'gizi', 'pakaian']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['baik', 'bangkit', 'menang', 'rohingya', 'alquran', 'program', 'gizi', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14336</v>
+        <v>33248</v>
       </c>
       <c r="C88" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>baru saja mengirim video legen mangir</t>
+          <t>baru saja mengirim video special region of yogyakarta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'video', 'legen', 'mangir']</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'special', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'video', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['mengirim', 'video', 'legen', 'mangir']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['kirim', 'video', 'legen', 'mangir']</t>
+          <t>['mengirim', 'video', 'spesial', 'region', 'of', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kirim', 'video', 'spesial', 'region', 'of', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14337</v>
+        <v>33249</v>
       </c>
       <c r="C89" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt teori jebakan betmen terbukti</t>
+          <t>baru saja mengirim foto dukuh tawangsari</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'teori', 'jebakan', 'betmen', 'terbukti']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'dukuh', 'tawangsari']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'dukuh', 'tawangsari']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['teori', 'jebakan', 'betmen', 'terbukti']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['teori', 'jebak', 'betmen', 'bukti']</t>
+          <t>['mengirim', 'foto', 'dukuh', 'tawangsari']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'dukuh', 'tawangsari']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14338</v>
+        <v>33250</v>
       </c>
       <c r="C90" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt opini pembanding ttg dandels yg lagi trending meskipun tetap ada uang yang ada yh</t>
+          <t xml:space="preserve">rt obrolan pagi ayah anak ibu di halaman masjid yg diberkahi plot twist jangan mereka bertiga itu yg ada di logo </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'opini', 'pembanding', 'ttg', 'dandels', 'yg', 'lagi', 'trending', 'meskipun', 'tetap', 'ada', 'uang', 'yang', 'ada', 'yh']</t>
+          <t>['rt', 'obrolan', 'pagi', 'ayah', 'anak', 'ibu', 'di', 'halaman', 'masjid', 'yg', 'diberkahi', 'plot', 'twist', 'jangan', 'mereka', 'bertiga', 'itu', 'yg', 'ada', 'di', 'logo']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'obrolan', 'pagi', 'ayah', 'anak', 'ibu', 'di', 'halaman', 'masjid', 'yang', 'diberkahi', 'plot', 'twist', 'jangan', 'mereka', 'bertiga', 'itu', 'yang', 'ada', 'di', 'logo']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['opini', 'pembanding', 'ttg', 'dandels', 'trending', 'uang', 'yh']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['opini', 'banding', 'ttg', 'dandels', 'trending', 'uang', 'yh']</t>
+          <t>['obrolan', 'pagi', 'ayah', 'anak', 'halaman', 'masjid', 'diberkahi', 'plot', 'twist', 'bertiga', 'logo']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['obrol', 'pagi', 'ayah', 'anak', 'halaman', 'masjid', 'kah', 'plot', 'twist', 'tiga', 'logo']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14339</v>
+        <v>33251</v>
       </c>
       <c r="C91" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt baru beberapa hari minta kritik ajaib</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'baru', 'beberapa', 'hari', 'minta', 'kritik', 'ajaib']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['kritik', 'ajaib']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['kritik', 'ajaib']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14340</v>
+        <v>33252</v>
       </c>
       <c r="C92" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt permohonan maaf ini belum tentu terbaca oleh ribuan konsumen digital lainnya yg telanjur mempercayainya sbg fakta sunggu</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'permohonan', 'maaf', 'ini', 'belum', 'tentu', 'terbaca', 'oleh', 'ribuan', 'konsumen', 'digital', 'lainnya', 'yg', 'telanjur', 'mempercayainya', 'sbg', 'fakta', 'sunggu']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['permohonan', 'maaf', 'terbaca', 'ribuan', 'konsumen', 'digital', 'telanjur', 'mempercayainya', 'sbg', 'fakta', 'sunggu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'baca', 'ribu', 'konsumen', 'digital', 'telanjur', 'percaya', 'sbg', 'fakta', 'sunggu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14341</v>
+        <v>33253</v>
       </c>
       <c r="C93" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt zaim menulis zaim</t>
+          <t>rt mendingan gue gak pake jilbab tapi bukan pelakor apa iya mendingan</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'zaim', 'menulis', 'zaim']</t>
+          <t>['rt', 'mendingan', 'gue', 'gak', 'pake', 'jilbab', 'tapi', 'bukan', 'pelakor', 'apa', 'iya', 'mendingan']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'lebih, baik', 'gue', 'tidak', 'pakai', 'jilbab', 'tapi', 'bukan', 'perebut, laki, orang', 'apa', 'iya', 'lebih, baik']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['zaim', 'menulis', 'zaim']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['zaim', 'tulis', 'zaim']</t>
+          <t>['lebih, baik', 'gue', 'pakai', 'jilbab', 'perebut, laki, orang', 'iya', 'lebih, baik']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['lebih baik', 'gue', 'pakai', 'jilbab', 'rebut laki orang', 'iya', 'lebih baik']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14342</v>
+        <v>33254</v>
       </c>
       <c r="C94" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt besarnya dosa para buzzer yang suka menyebar kabar bohong fitnah dan membully hukumnya sama dengan memakan daging sauda</t>
+          <t xml:space="preserve">rt anwar memberi maaf pada yang merasa punya khilaf menentramkan hatinya memberi maaf pada yang tak merasa bersalah menentramkan </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'besarnya', 'dosa', 'para', 'buzzer', 'yang', 'suka', 'menyebar', 'kabar', 'bohong', 'fitnah', 'dan', 'membully', 'hukumnya', 'sama', 'dengan', 'memakan', 'daging', 'sauda']</t>
+          <t>['rt', 'anwar', 'memberi', 'maaf', 'pada', 'yang', 'merasa', 'punya', 'khilaf', 'menentramkan', 'hatinya', 'memberi', 'maaf', 'pada', 'yang', 'tak', 'merasa', 'bersalah', 'menentramkan']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'anwar', 'memberi', 'maaf', 'pada', 'yang', 'merasa', 'punya', 'khilaf', 'menentramkan', 'hatinya', 'memberi', 'maaf', 'pada', 'yang', 'tak', 'merasa', 'bersalah', 'menentramkan']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['besarnya', 'dosa', 'buzzer', 'suka', 'menyebar', 'kabar', 'bohong', 'fitnah', 'membully', 'hukumnya', 'memakan', 'daging', 'sauda']</t>
+          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['besar', 'dosa', 'buzzer', 'suka', 'sebar', 'kabar', 'bohong', 'fitnah', 'membully', 'hukum', 'makan', 'daging', 'sauda']</t>
+          <t>['anwar', 'maaf', 'khilaf', 'menentramkan', 'hatinya', 'maaf', 'bersalah', 'menentramkan']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['anwar', 'maaf', 'khilaf', 'menentramkan', 'hati', 'maaf', 'salah', 'menentramkan']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14343</v>
+        <v>33255</v>
       </c>
       <c r="C95" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt saya dan sangat mendukung penganugrahan gelar pahlawan nasional kpd syaikhona cholil dan kh bisyri sansuri seb</t>
+          <t>rt ini cara kita menghangatkan keluarga membuatkan pakaian musim dingin gratis terusmenerus utk</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'dan', 'sangat', 'mendukung', 'penganugrahan', 'gelar', 'pahlawan', 'nasional', 'kpd', 'syaikhona', 'cholil', 'dan', 'kh', 'bisyri', 'sansuri', 'seb']</t>
+          <t>['rt', 'ini', 'cara', 'kita', 'menghangatkan', 'keluarga', 'membuatkan', 'pakaian', 'musim', 'dingin', 'gratis', 'terusmenerus', 'utk']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ini', 'cara', 'kita', 'menghangatkan', 'keluarga', 'membuatkan', 'pakaian', 'musim', 'dingin', 'gratis', 'terusmenerus', 'untuk']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['mendukung', 'penganugrahan', 'gelar', 'pahlawan', 'nasional', 'kpd', 'syaikhona', 'cholil', 'kh', 'bisyri', 'sansuri', 'seb']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['dukung', 'penganugrahan', 'gelar', 'pahlawan', 'nasional', 'kpd', 'syaikhona', 'cholil', 'kh', 'bisyri', 'sansuri', 'seb']</t>
+          <t>['menghangatkan', 'keluarga', 'membuatkan', 'pakaian', 'musim', 'dingin', 'gratis', 'terusmenerus']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['hangat', 'keluarga', 'buat', 'pakai', 'musim', 'dingin', 'gratis', 'terusmenerus']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14344</v>
+        <v>33256</v>
       </c>
       <c r="C96" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt abdulsomad legen mangir ig jl sultan agung trirenggo bantul yogyakarta no telp menyajikan</t>
+          <t>baru saja mengirim foto klner dom</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'abdulsomad', 'legen', 'mangir', 'ig', 'jl', 'sultan', 'agung', 'trirenggo', 'bantul', 'yogyakarta', 'no', 'telp', 'menyajikan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'klner', 'dom']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'klner', 'dom']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['abdulsomad', 'legen', 'mangir', 'ig', 'jl', 'sultan', 'agung', 'trirenggo', 'bantul', 'yogyakarta', 'no', 'telp', 'menyajikan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['abdulsomad', 'legen', 'mangir', 'ig', 'jl', 'sultan', 'agung', 'trirenggo', 'bantul', 'yogyakarta', 'no', 'telp', 'saji']</t>
+          <t>['mengirim', 'foto', 'klner', 'dom']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'klner', 'dom']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14345</v>
+        <v>33257</v>
       </c>
       <c r="C97" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto schloss marienburg</t>
+          <t>rt albinsaid untuk menempuh meter siput butuh waktu jam tapi mobil formula hanya detik kita mungkin punya citacita</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto', 'schloss', 'marienburg']</t>
+          <t>['rt', 'albinsaid', 'untuk', 'menempuh', 'meter', 'siput', 'butuh', 'waktu', 'jam', 'tapi', 'mobil', 'formula', 'hanya', 'detik', 'kita', 'mungkin', 'punya', 'citacita']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'albinsaid', 'untuk', 'menempuh', 'meter', 'siput', 'butuh', 'waktu', 'jam', 'tapi', 'mobil', 'formula', 'hanya', 'detik', 'kita', 'mungkin', 'punya', 'citacita']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto', 'schloss', 'marienburg']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['kirim', 'foto', 'schloss', 'marienburg']</t>
+          <t>['albinsaid', 'menempuh', 'meter', 'siput', 'butuh', 'jam', 'mobil', 'formula', 'detik', 'citacita']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['albinsaid', 'tempuh', 'meter', 'siput', 'butuh', 'jam', 'mobil', 'formula', 'detik', 'citacita']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14346</v>
+        <v>33258</v>
       </c>
       <c r="C98" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt suka banget nyimak penjelasan ustadz kalo sdg jelasin tentang sejarah bahasa nya tertata ceritanya runut dan</t>
+          <t>rt tweeps benar khan apa yg saya sampaikan ke berbagai media sebelumnya kalau memang presiden serius maka jala</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'suka', 'banget', 'nyimak', 'penjelasan', 'ustadz', 'kalo', 'sdg', 'jelasin', 'tentang', 'sejarah', 'bahasa', 'nya', 'tertata', 'ceritanya', 'runut', 'dan']</t>
+          <t>['rt', 'tweeps', 'benar', 'khan', 'apa', 'yg', 'saya', 'sampaikan', 'ke', 'berbagai', 'media', 'sebelumnya', 'kalau', 'memang', 'presiden', 'serius', 'maka', 'jala']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'twit', 'benar', 'kan', 'apa', 'yang', 'saya', 'sampaikan', 'ke', 'berbagai', 'media', 'sebelumnya', 'kalau', 'memang', 'presiden', 'serius', 'maka', 'jala']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['suka', 'banget', 'nyimak', 'penjelasan', 'ustadz', 'sdg', 'jelasin', 'sejarah', 'bahasa', 'tertata', 'ceritanya', 'runut']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['suka', 'banget', 'nyimak', 'jelas', 'ustadz', 'sdg', 'jelasin', 'sejarah', 'bahasa', 'tata', 'cerita', 'runut']</t>
+          <t>['twit', 'media', 'presiden', 'serius', 'jala']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['twit', 'media', 'presiden', 'serius', 'jala']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14347</v>
+        <v>33259</v>
       </c>
       <c r="C99" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt anggota komisi iv dpr ri fpks drh slamet menyoroti temuan penggunaan kawasan hutan yang tidak prosedural atau tanpa izi</t>
+          <t>rt laporan keuangan gar itb untuk proyek prof din syamsuddin bocor ke publik</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'anggota', 'komisi', 'iv', 'dpr', 'ri', 'fpks', 'drh', 'slamet', 'menyoroti', 'temuan', 'penggunaan', 'kawasan', 'hutan', 'yang', 'tidak', 'prosedural', 'atau', 'tanpa', 'izi']</t>
+          <t>['rt', 'laporan', 'keuangan', 'gar', 'itb', 'untuk', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'ke', 'publik']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'laporan', 'keuangan', 'gar', 'institut, teknologi, bandung', 'untuk', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'ke', 'publik']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['anggota', 'komisi', 'iv', 'dpr', 'ri', 'fpks', 'drh', 'slamet', 'menyoroti', 'temuan', 'penggunaan', 'kawasan', 'hutan', 'prosedural', 'izi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['anggota', 'komisi', 'iv', 'dpr', 'ri', 'fpks', 'drh', 'slamet', 'sorot', 'temu', 'guna', 'kawasan', 'hutan', 'prosedural', 'izi']</t>
+          <t>['laporan', 'keuangan', 'gar', 'institut, teknologi, bandung', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'publik']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['lapor', 'uang', 'gar', 'institut teknologi bandung', 'proyek', 'prof', 'din', 'syamsuddin', 'bocor', 'publik']</t>
         </is>
       </c>
     </row>
@@ -4003,70 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14348</v>
+        <v>33260</v>
       </c>
       <c r="C100" t="n">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt abdulsomad sedulur sederek sedoyo ojo lali mampir nang legen mangir jl sultan agung trirenggo bantul yogyakarta no telp</t>
+          <t>baru saja mengirim foto omah dakwah prou media jl jogokariyan yogyakarta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'abdulsomad', 'sedulur', 'sederek', 'sedoyo', 'ojo', 'lali', 'mampir', 'nang', 'legen', 'mangir', 'jl', 'sultan', 'agung', 'trirenggo', 'bantul', 'yogyakarta', 'no', 'telp']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jl', 'jogokariyan', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jalan', 'jogokariyan', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['abdulsomad', 'sedulur', 'sederek', 'sedoyo', 'ojo', 'lali', 'mampir', 'nang', 'legen', 'mangir', 'jl', 'sultan', 'agung', 'trirenggo', 'bantul', 'yogyakarta', 'no', 'telp']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['abdulsomad', 'dulur', 'derek', 'doyo', 'ojo', 'lali', 'mampir', 'nang', 'legen', 'mangir', 'jl', 'sultan', 'agung', 'trirenggo', 'bantul', 'yogyakarta', 'no', 'telp']</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>14349</v>
-      </c>
-      <c r="C101" t="n">
-        <v>183</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>rt selain sawah amp kolam lele terdapat jg seperangkat rangkaian hidroponik yg di tanami dgn berbagai macam tanaman diantarany</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['rt', 'selain', 'sawah', 'amp', 'kolam', 'lele', 'terdapat', 'jg', 'seperangkat', 'rangkaian', 'hidroponik', 'yg', 'di', 'tanami', 'dgn', 'berbagai', 'macam', 'tanaman', 'diantarany']</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['sawah', 'kolam', 'lele', 'jg', 'seperangkat', 'rangkaian', 'hidroponik', 'tanami', 'tanaman', 'diantarany']</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>['sawah', 'kolam', 'lele', 'jg', 'perangkat', 'rangkai', 'hidroponik', 'tanam', 'tanam', 'diantarany']</t>
+          <t>['mengirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jalan', 'jogokariyan', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto', 'omah', 'dakwah', 'prou', 'media', 'jalan', 'jogokariyan', 'yogyakarta']</t>
         </is>
       </c>
     </row>
